--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2419287.765734995</v>
+        <v>-2420041.942964493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296370.265119874</v>
+        <v>1296370.265119875</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1148,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>15.26809192273229</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.956053622142033</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.73205987707308</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>15.30273751513505</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.4065958057407</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>233.9456459132677</v>
@@ -1376,19 +1376,19 @@
         <v>223.3557957629431</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.603124214522</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13.28245881943656</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4782531316254</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>91.2762435384922</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.97885544792412</v>
+        <v>59.97885544792418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.3620008225252</v>
       </c>
       <c r="T11" t="n">
-        <v>89.591942059834</v>
+        <v>89.59194205983404</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.9786279680351</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.4250126123951</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.9137228596732</v>
       </c>
       <c r="X11" t="n">
-        <v>238.4038548207292</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.20593779212746</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>41.38125313057591</v>
       </c>
       <c r="D12" t="n">
-        <v>16.11781970689887</v>
+        <v>16.11781970689893</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>134.1854869837136</v>
       </c>
       <c r="F12" t="n">
-        <v>13.741966535644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.750225239536444</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T12" t="n">
-        <v>67.76513049237282</v>
+        <v>67.76513049237288</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9238790503212</v>
+        <v>94.59663319258142</v>
       </c>
       <c r="V12" t="n">
-        <v>101.4733412916854</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>120.3677373031798</v>
       </c>
       <c r="X12" t="n">
-        <v>74.44573934573759</v>
+        <v>74.44573934573765</v>
       </c>
       <c r="Y12" t="n">
-        <v>182.2231023056172</v>
+        <v>74.35544991956453</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.50473432419741</v>
+        <v>48.50473432419747</v>
       </c>
       <c r="C13" t="n">
-        <v>35.91957524088795</v>
+        <v>35.91957524088801</v>
       </c>
       <c r="D13" t="n">
-        <v>17.28822716047247</v>
+        <v>17.28822716047253</v>
       </c>
       <c r="E13" t="n">
-        <v>15.10671678882929</v>
+        <v>15.10671678882935</v>
       </c>
       <c r="F13" t="n">
-        <v>14.09380216519136</v>
+        <v>14.09380216519142</v>
       </c>
       <c r="G13" t="n">
-        <v>36.44068941610613</v>
+        <v>36.44068941610619</v>
       </c>
       <c r="H13" t="n">
-        <v>28.91686197014275</v>
+        <v>28.91686197014281</v>
       </c>
       <c r="I13" t="n">
-        <v>17.41568514316426</v>
+        <v>17.41568514316432</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.93727240584207</v>
+        <v>35.93727240584212</v>
       </c>
       <c r="S13" t="n">
-        <v>88.80230208648121</v>
+        <v>88.80230208648126</v>
       </c>
       <c r="T13" t="n">
-        <v>95.66533702719626</v>
+        <v>95.66533702719632</v>
       </c>
       <c r="U13" t="n">
-        <v>154.9796174577721</v>
+        <v>154.9796174577722</v>
       </c>
       <c r="V13" t="n">
-        <v>120.8103974660881</v>
+        <v>120.8103974660882</v>
       </c>
       <c r="W13" t="n">
-        <v>155.1957524788511</v>
+        <v>155.1957524788512</v>
       </c>
       <c r="X13" t="n">
-        <v>94.38240953129727</v>
+        <v>94.38240953129733</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.25740749435491</v>
+        <v>87.25740749435496</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.4065958057408</v>
+        <v>251.4065958057407</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>155.4897206463838</v>
       </c>
       <c r="D14" t="n">
-        <v>223.3557957629432</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>250.603124214522</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.5487998839716</v>
       </c>
       <c r="G14" t="n">
-        <v>161.7649094226008</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H14" t="n">
-        <v>203.0552122059869</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.9788554479242</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.36200082252523</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.20593779212754</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.38125313057591</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.31783459766115</v>
+        <v>26.31783459766112</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.74196653564405</v>
       </c>
       <c r="G15" t="n">
-        <v>5.75022523953653</v>
+        <v>113.6178776255884</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.41423625823927</v>
+        <v>35.41423625823924</v>
       </c>
       <c r="T15" t="n">
-        <v>175.632782878425</v>
+        <v>67.76513049237288</v>
       </c>
       <c r="U15" t="n">
-        <v>94.59663319258145</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.4733412916854</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.44573934573768</v>
+        <v>74.44573934573765</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.35544991956456</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.5047343241975</v>
+        <v>48.50473432419747</v>
       </c>
       <c r="C16" t="n">
-        <v>35.91957524088804</v>
+        <v>35.91957524088801</v>
       </c>
       <c r="D16" t="n">
-        <v>17.28822716047256</v>
+        <v>17.28822716047253</v>
       </c>
       <c r="E16" t="n">
-        <v>15.10671678882937</v>
+        <v>15.10671678882935</v>
       </c>
       <c r="F16" t="n">
-        <v>14.09380216519145</v>
+        <v>14.09380216519142</v>
       </c>
       <c r="G16" t="n">
-        <v>36.44068941610622</v>
+        <v>36.44068941610619</v>
       </c>
       <c r="H16" t="n">
-        <v>28.91686197014284</v>
+        <v>28.91686197014281</v>
       </c>
       <c r="I16" t="n">
-        <v>17.41568514316435</v>
+        <v>17.41568514316432</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.93727240584215</v>
+        <v>35.93727240584212</v>
       </c>
       <c r="S16" t="n">
-        <v>88.80230208648129</v>
+        <v>88.80230208648126</v>
       </c>
       <c r="T16" t="n">
-        <v>95.66533702719634</v>
+        <v>95.66533702719632</v>
       </c>
       <c r="U16" t="n">
         <v>154.9796174577722</v>
@@ -1828,10 +1828,10 @@
         <v>155.1957524788512</v>
       </c>
       <c r="X16" t="n">
-        <v>94.38240953129736</v>
+        <v>94.38240953129733</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.25740749435499</v>
+        <v>87.25740749435496</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>144.9409165143535</v>
       </c>
       <c r="C17" t="n">
-        <v>127.4799666218804</v>
+        <v>127.4799666218803</v>
       </c>
       <c r="D17" t="n">
-        <v>116.8901164715561</v>
+        <v>116.8901164715559</v>
       </c>
       <c r="E17" t="n">
         <v>144.1374449231347</v>
       </c>
       <c r="F17" t="n">
-        <v>169.0831205925843</v>
+        <v>169.0831205925844</v>
       </c>
       <c r="G17" t="n">
         <v>177.0125738402381</v>
       </c>
       <c r="H17" t="n">
-        <v>96.58953291459963</v>
+        <v>96.58953291459966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.51294867664779</v>
+        <v>13.51294867664782</v>
       </c>
       <c r="V17" t="n">
-        <v>89.95933332100779</v>
+        <v>89.95933332100782</v>
       </c>
       <c r="W17" t="n">
         <v>111.4480435682859</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I18" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.63964069051124</v>
+        <v>83.63964069051123</v>
       </c>
       <c r="S18" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>225.9238790503212</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>229.5784283609685</v>
+        <v>154.0652382195682</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.64048808284124</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.0615361057725</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.5139381663849</v>
+        <v>48.51393816638492</v>
       </c>
       <c r="V19" t="n">
-        <v>14.34471817470089</v>
+        <v>14.34471817470092</v>
       </c>
       <c r="W19" t="n">
-        <v>48.73007318746389</v>
+        <v>48.73007318746392</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H21" t="n">
-        <v>35.96129464858782</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.63964069051123</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>13.90205801179252</v>
+        <v>63.13553413727441</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>112.5763934301506</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>160.2441078278826</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.81742827788985</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I24" t="n">
-        <v>67.3398121204325</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9238790503212</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>130.9639487599178</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.48514267562183</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>112.5763934301506</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.8147150071446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.4581060545114</v>
+        <v>232.4581060545115</v>
       </c>
       <c r="C26" t="n">
         <v>214.9971561620384</v>
@@ -2561,19 +2561,19 @@
         <v>204.4073060117138</v>
       </c>
       <c r="E26" t="n">
-        <v>231.6546344632926</v>
+        <v>231.6546344632927</v>
       </c>
       <c r="F26" t="n">
         <v>256.6003101327423</v>
       </c>
       <c r="G26" t="n">
-        <v>264.529763380396</v>
+        <v>264.5297633803961</v>
       </c>
       <c r="H26" t="n">
         <v>184.1067224547576</v>
       </c>
       <c r="I26" t="n">
-        <v>41.03036569669486</v>
+        <v>41.0303656966949</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.41351107129588</v>
+        <v>47.41351107129591</v>
       </c>
       <c r="T26" t="n">
-        <v>70.64345230860472</v>
+        <v>70.64345230860476</v>
       </c>
       <c r="U26" t="n">
         <v>101.0301382168058</v>
@@ -2621,7 +2621,7 @@
         <v>219.4553650694999</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.9622030470844</v>
+        <v>235.9622030470845</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>91.7518150456898</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.43276337934662</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S27" t="n">
-        <v>16.46574650700992</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T27" t="n">
-        <v>129.9198850074148</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U27" t="n">
-        <v>75.6481434413521</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>82.52485154045615</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>55.49724959450836</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.55624457296815</v>
+        <v>29.55624457296818</v>
       </c>
       <c r="C28" t="n">
-        <v>16.97108548965869</v>
+        <v>16.97108548965872</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.49219966487687</v>
+        <v>17.4921996648769</v>
       </c>
       <c r="H28" t="n">
-        <v>9.968372218913494</v>
+        <v>9.968372218913522</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.98878265461281</v>
+        <v>16.98878265461283</v>
       </c>
       <c r="S28" t="n">
-        <v>69.85381233525194</v>
+        <v>69.85381233525197</v>
       </c>
       <c r="T28" t="n">
-        <v>76.716847275967</v>
+        <v>76.71684727596703</v>
       </c>
       <c r="U28" t="n">
         <v>136.0311277065429</v>
@@ -2776,10 +2776,10 @@
         <v>136.2472627276219</v>
       </c>
       <c r="X28" t="n">
-        <v>75.43391978006801</v>
+        <v>75.43391978006804</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.30891774312565</v>
+        <v>68.30891774312568</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.4581060545114</v>
+        <v>232.4581060545115</v>
       </c>
       <c r="C29" t="n">
         <v>214.9971561620384</v>
@@ -2798,19 +2798,19 @@
         <v>204.4073060117138</v>
       </c>
       <c r="E29" t="n">
-        <v>231.6546344632926</v>
+        <v>231.6546344632927</v>
       </c>
       <c r="F29" t="n">
         <v>256.6003101327423</v>
       </c>
       <c r="G29" t="n">
-        <v>264.529763380396</v>
+        <v>264.5297633803961</v>
       </c>
       <c r="H29" t="n">
-        <v>184.1067224547575</v>
+        <v>184.1067224547576</v>
       </c>
       <c r="I29" t="n">
-        <v>41.0303656966948</v>
+        <v>41.03036569669489</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.41351107129582</v>
+        <v>47.41351107129591</v>
       </c>
       <c r="T29" t="n">
-        <v>70.64345230860467</v>
+        <v>70.64345230860475</v>
       </c>
       <c r="U29" t="n">
-        <v>101.0301382168057</v>
+        <v>101.0301382168058</v>
       </c>
       <c r="V29" t="n">
-        <v>177.4765228611657</v>
+        <v>177.4765228611658</v>
       </c>
       <c r="W29" t="n">
-        <v>198.9652331084438</v>
+        <v>198.9652331084439</v>
       </c>
       <c r="X29" t="n">
-        <v>219.4553650694998</v>
+        <v>219.4553650694999</v>
       </c>
       <c r="Y29" t="n">
-        <v>235.9622030470844</v>
+        <v>235.9622030470845</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>75.89672105068585</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.46574650700987</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T30" t="n">
-        <v>48.8166407411435</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9238790503212</v>
+        <v>75.64814344135213</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2934,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>201.432992778118</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>55.40696016833525</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.5562445729681</v>
+        <v>29.55624457296818</v>
       </c>
       <c r="C31" t="n">
-        <v>16.97108548965863</v>
+        <v>16.97108548965872</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.49219966487681</v>
+        <v>17.4921996648769</v>
       </c>
       <c r="H31" t="n">
-        <v>9.968372218913437</v>
+        <v>9.968372218913522</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.98878265461275</v>
+        <v>16.98878265461283</v>
       </c>
       <c r="S31" t="n">
-        <v>69.85381233525189</v>
+        <v>69.85381233525197</v>
       </c>
       <c r="T31" t="n">
-        <v>76.71684727596694</v>
+        <v>76.71684727596703</v>
       </c>
       <c r="U31" t="n">
-        <v>136.0311277065428</v>
+        <v>136.0311277065429</v>
       </c>
       <c r="V31" t="n">
-        <v>101.8619077148588</v>
+        <v>101.8619077148589</v>
       </c>
       <c r="W31" t="n">
-        <v>136.2472627276218</v>
+        <v>136.2472627276219</v>
       </c>
       <c r="X31" t="n">
-        <v>75.43391978006795</v>
+        <v>75.43391978006804</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.30891774312559</v>
+        <v>68.30891774312568</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.4989818045957</v>
+        <v>228.4989818045958</v>
       </c>
       <c r="C32" t="n">
-        <v>211.0380319121226</v>
+        <v>211.0380319121227</v>
       </c>
       <c r="D32" t="n">
         <v>200.4481817617981</v>
       </c>
       <c r="E32" t="n">
-        <v>227.6955102133769</v>
+        <v>227.695510213377</v>
       </c>
       <c r="F32" t="n">
-        <v>252.6411858828265</v>
+        <v>252.6411858828266</v>
       </c>
       <c r="G32" t="n">
-        <v>260.5706391304803</v>
+        <v>260.5706391304804</v>
       </c>
       <c r="H32" t="n">
-        <v>180.1475982048418</v>
+        <v>180.1475982048419</v>
       </c>
       <c r="I32" t="n">
-        <v>37.07124144677911</v>
+        <v>37.0712414467792</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45438682138013</v>
+        <v>43.45438682138021</v>
       </c>
       <c r="T32" t="n">
-        <v>66.68432805868898</v>
+        <v>66.68432805868906</v>
       </c>
       <c r="U32" t="n">
-        <v>97.07101396689001</v>
+        <v>97.07101396689009</v>
       </c>
       <c r="V32" t="n">
-        <v>173.51739861125</v>
+        <v>173.5173986112501</v>
       </c>
       <c r="W32" t="n">
-        <v>195.0061088585281</v>
+        <v>195.0061088585282</v>
       </c>
       <c r="X32" t="n">
-        <v>215.4962408195841</v>
+        <v>215.4962408195842</v>
       </c>
       <c r="Y32" t="n">
-        <v>232.0030787971687</v>
+        <v>232.0030787971688</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>3.410220596516126</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S33" t="n">
-        <v>105.4872392731126</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T33" t="n">
-        <v>44.8575164912278</v>
+        <v>44.85751649122788</v>
       </c>
       <c r="U33" t="n">
-        <v>71.68901919143634</v>
+        <v>71.68901919143643</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>170.1901716835979</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.59712032305239</v>
+        <v>25.59712032305248</v>
       </c>
       <c r="C34" t="n">
-        <v>13.01196123974293</v>
+        <v>13.01196123974302</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53307541496111</v>
+        <v>13.5330754149612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.009247968997734</v>
+        <v>6.00924796899782</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.02965840469705</v>
+        <v>13.02965840469713</v>
       </c>
       <c r="S34" t="n">
-        <v>65.89468808533618</v>
+        <v>65.89468808533627</v>
       </c>
       <c r="T34" t="n">
-        <v>72.75772302605124</v>
+        <v>72.75772302605132</v>
       </c>
       <c r="U34" t="n">
-        <v>132.0720034566271</v>
+        <v>132.0720034566272</v>
       </c>
       <c r="V34" t="n">
-        <v>97.9027834649431</v>
+        <v>97.90278346494318</v>
       </c>
       <c r="W34" t="n">
-        <v>132.2881384777061</v>
+        <v>132.2881384777062</v>
       </c>
       <c r="X34" t="n">
-        <v>71.47479553015225</v>
+        <v>71.47479553015233</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.34979349320989</v>
+        <v>64.34979349320997</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7734255950847</v>
+        <v>179.7734255950848</v>
       </c>
       <c r="C35" t="n">
-        <v>162.3124757026117</v>
+        <v>162.3124757026118</v>
       </c>
       <c r="D35" t="n">
-        <v>151.7226255522871</v>
+        <v>151.7226255522872</v>
       </c>
       <c r="E35" t="n">
         <v>178.969954003866</v>
       </c>
       <c r="F35" t="n">
-        <v>203.9156296733156</v>
+        <v>203.9156296733157</v>
       </c>
       <c r="G35" t="n">
         <v>211.8450829209694</v>
       </c>
       <c r="H35" t="n">
-        <v>131.4220419953309</v>
+        <v>131.422041995331</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.95877184917805</v>
+        <v>17.95877184917811</v>
       </c>
       <c r="U35" t="n">
-        <v>48.34545775737908</v>
+        <v>48.34545775737914</v>
       </c>
       <c r="V35" t="n">
         <v>124.7918424017391</v>
@@ -3329,7 +3329,7 @@
         <v>146.2805526490172</v>
       </c>
       <c r="X35" t="n">
-        <v>166.7706846100732</v>
+        <v>166.7706846100733</v>
       </c>
       <c r="Y35" t="n">
         <v>183.2775225876578</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>61.80922504053037</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>48.44306594775033</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S36" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.16913187582525</v>
+        <v>17.16913187582531</v>
       </c>
       <c r="T37" t="n">
-        <v>24.0321668165403</v>
+        <v>24.03216681654036</v>
       </c>
       <c r="U37" t="n">
-        <v>83.34644724711617</v>
+        <v>83.34644724711623</v>
       </c>
       <c r="V37" t="n">
-        <v>49.17722725543217</v>
+        <v>49.17722725543223</v>
       </c>
       <c r="W37" t="n">
-        <v>83.56258226819517</v>
+        <v>83.56258226819523</v>
       </c>
       <c r="X37" t="n">
-        <v>22.74923932064132</v>
+        <v>22.74923932064138</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.62423728369896</v>
+        <v>15.62423728369902</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.7734255950848</v>
+        <v>179.7734255950847</v>
       </c>
       <c r="C38" t="n">
-        <v>162.3124757026118</v>
+        <v>162.3124757026117</v>
       </c>
       <c r="D38" t="n">
-        <v>151.7226255522872</v>
+        <v>151.7226255522871</v>
       </c>
       <c r="E38" t="n">
         <v>178.969954003866</v>
       </c>
       <c r="F38" t="n">
-        <v>203.9156296733157</v>
+        <v>203.9156296733156</v>
       </c>
       <c r="G38" t="n">
         <v>211.8450829209694</v>
       </c>
       <c r="H38" t="n">
-        <v>131.422041995331</v>
+        <v>131.4220419953309</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.95877184917811</v>
+        <v>17.95877184917805</v>
       </c>
       <c r="U38" t="n">
-        <v>48.34545775737914</v>
+        <v>48.34545775737908</v>
       </c>
       <c r="V38" t="n">
         <v>124.7918424017391</v>
@@ -3566,7 +3566,7 @@
         <v>146.2805526490172</v>
       </c>
       <c r="X38" t="n">
-        <v>166.7706846100733</v>
+        <v>166.7706846100732</v>
       </c>
       <c r="Y38" t="n">
         <v>183.2775225876578</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T39" t="n">
-        <v>25.56560845804692</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9238790503212</v>
+        <v>162.6214848755619</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>48.73456709252378</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.16913187582531</v>
+        <v>17.16913187582525</v>
       </c>
       <c r="T40" t="n">
-        <v>24.03216681654036</v>
+        <v>24.03216681654031</v>
       </c>
       <c r="U40" t="n">
-        <v>83.34644724711623</v>
+        <v>83.34644724711617</v>
       </c>
       <c r="V40" t="n">
-        <v>49.17722725543223</v>
+        <v>49.17722725543217</v>
       </c>
       <c r="W40" t="n">
-        <v>83.56258226819523</v>
+        <v>83.56258226819517</v>
       </c>
       <c r="X40" t="n">
-        <v>22.74923932064138</v>
+        <v>22.74923932064132</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.62423728369902</v>
+        <v>15.62423728369896</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.7734255950849</v>
+        <v>179.7734255950848</v>
       </c>
       <c r="C41" t="n">
         <v>162.3124757026118</v>
@@ -3746,13 +3746,13 @@
         <v>151.7226255522872</v>
       </c>
       <c r="E41" t="n">
-        <v>178.9699540038661</v>
+        <v>178.969954003866</v>
       </c>
       <c r="F41" t="n">
         <v>203.9156296733157</v>
       </c>
       <c r="G41" t="n">
-        <v>211.8450829209695</v>
+        <v>211.8450829209694</v>
       </c>
       <c r="H41" t="n">
         <v>131.422041995331</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.95877184917815</v>
+        <v>17.95877184917811</v>
       </c>
       <c r="U41" t="n">
-        <v>48.34545775737919</v>
+        <v>48.34545775737914</v>
       </c>
       <c r="V41" t="n">
-        <v>124.7918424017392</v>
+        <v>124.7918424017391</v>
       </c>
       <c r="W41" t="n">
-        <v>146.2805526490173</v>
+        <v>146.2805526490172</v>
       </c>
       <c r="X41" t="n">
         <v>166.7706846100733</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.2775225876579</v>
+        <v>183.2775225876578</v>
       </c>
     </row>
     <row r="42">
@@ -3825,16 +3825,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S42" t="n">
-        <v>99.73181240412799</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9238790503212</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>29.8401710810295</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>98.70991428783643</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.16913187582536</v>
+        <v>17.16913187582531</v>
       </c>
       <c r="T43" t="n">
-        <v>24.03216681654042</v>
+        <v>24.03216681654036</v>
       </c>
       <c r="U43" t="n">
-        <v>83.34644724711629</v>
+        <v>83.34644724711623</v>
       </c>
       <c r="V43" t="n">
-        <v>49.17722725543229</v>
+        <v>49.17722725543223</v>
       </c>
       <c r="W43" t="n">
-        <v>83.56258226819529</v>
+        <v>83.56258226819523</v>
       </c>
       <c r="X43" t="n">
-        <v>22.74923932064144</v>
+        <v>22.74923932064138</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.62423728369907</v>
+        <v>15.62423728369902</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.7734255950849</v>
+        <v>179.7734255950847</v>
       </c>
       <c r="C44" t="n">
-        <v>162.3124757026118</v>
+        <v>162.3124757026117</v>
       </c>
       <c r="D44" t="n">
-        <v>151.7226255522872</v>
+        <v>151.7226255522871</v>
       </c>
       <c r="E44" t="n">
-        <v>178.9699540038661</v>
+        <v>178.969954003866</v>
       </c>
       <c r="F44" t="n">
-        <v>203.9156296733157</v>
+        <v>203.9156296733156</v>
       </c>
       <c r="G44" t="n">
-        <v>211.8450829209695</v>
+        <v>211.8450829209694</v>
       </c>
       <c r="H44" t="n">
-        <v>131.422041995331</v>
+        <v>131.4220419953309</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.95877184917816</v>
+        <v>17.95877184917805</v>
       </c>
       <c r="U44" t="n">
-        <v>48.34545775737919</v>
+        <v>48.34545775737908</v>
       </c>
       <c r="V44" t="n">
-        <v>124.7918424017392</v>
+        <v>124.7918424017391</v>
       </c>
       <c r="W44" t="n">
-        <v>146.2805526490173</v>
+        <v>146.2805526490172</v>
       </c>
       <c r="X44" t="n">
-        <v>166.7706846100733</v>
+        <v>166.7706846100732</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.2775225876579</v>
+        <v>183.2775225876578</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>29.86269339544501</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>16.09217171361673</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0923763501127</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.16913187582536</v>
+        <v>17.16913187582525</v>
       </c>
       <c r="T46" t="n">
-        <v>24.03216681654042</v>
+        <v>24.03216681654031</v>
       </c>
       <c r="U46" t="n">
-        <v>83.34644724711629</v>
+        <v>83.34644724711617</v>
       </c>
       <c r="V46" t="n">
-        <v>49.17722725543229</v>
+        <v>49.17722725543217</v>
       </c>
       <c r="W46" t="n">
-        <v>83.56258226819529</v>
+        <v>83.56258226819517</v>
       </c>
       <c r="X46" t="n">
-        <v>22.74923932064144</v>
+        <v>22.74923932064132</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.62423728369907</v>
+        <v>15.62423728369896</v>
       </c>
     </row>
   </sheetData>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
-        <v>44.17383394310966</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>28.71652332176112</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
         <v>13.29420824829416</v>
@@ -4805,16 +4805,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C9" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
         <v>17.43566227534506</v>
@@ -4875,7 +4875,7 @@
         <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4887,7 +4887,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
         <v>16.37392914119451</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G10" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H10" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J10" t="n">
         <v>16.68152962255934</v>
@@ -4969,10 +4969,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4987,25 +4987,25 @@
         <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>931.3779031622126</v>
+        <v>819.3891015095269</v>
       </c>
       <c r="C11" t="n">
-        <v>695.0691699164877</v>
+        <v>583.0803682638019</v>
       </c>
       <c r="D11" t="n">
-        <v>469.4572550044239</v>
+        <v>357.4684533517379</v>
       </c>
       <c r="E11" t="n">
-        <v>469.4572550044239</v>
+        <v>104.3339844481805</v>
       </c>
       <c r="F11" t="n">
-        <v>469.4572550044239</v>
+        <v>90.91735937804252</v>
       </c>
       <c r="G11" t="n">
-        <v>183.1155851744993</v>
+        <v>90.91735937804252</v>
       </c>
       <c r="H11" t="n">
-        <v>90.91735937804253</v>
+        <v>90.91735937804252</v>
       </c>
       <c r="I11" t="n">
         <v>30.3326569053918</v>
@@ -5066,25 +5066,25 @@
         <v>1516.63284526959</v>
       </c>
       <c r="S11" t="n">
-        <v>1516.63284526959</v>
+        <v>1449.600521206434</v>
       </c>
       <c r="T11" t="n">
-        <v>1426.135934098041</v>
+        <v>1359.103610034884</v>
       </c>
       <c r="U11" t="n">
-        <v>1426.135934098041</v>
+        <v>1237.913076733838</v>
       </c>
       <c r="V11" t="n">
-        <v>1426.135934098041</v>
+        <v>1039.503973084954</v>
       </c>
       <c r="W11" t="n">
-        <v>1426.135934098041</v>
+        <v>819.3891015095269</v>
       </c>
       <c r="X11" t="n">
-        <v>1185.323959531648</v>
+        <v>819.3891015095269</v>
       </c>
       <c r="Y11" t="n">
-        <v>1185.323959531648</v>
+        <v>819.3891015095269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>399.9928497597312</v>
+        <v>508.9500743921076</v>
       </c>
       <c r="C12" t="n">
-        <v>225.5398204786042</v>
+        <v>467.1508288056673</v>
       </c>
       <c r="D12" t="n">
-        <v>209.2591945120397</v>
+        <v>450.8702028391027</v>
       </c>
       <c r="E12" t="n">
-        <v>50.02173950658417</v>
+        <v>315.3293068959576</v>
       </c>
       <c r="F12" t="n">
-        <v>36.14096522815589</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="G12" t="n">
         <v>30.3326569053918</v>
@@ -5118,22 +5118,22 @@
         <v>30.3326569053918</v>
       </c>
       <c r="J12" t="n">
-        <v>30.3326569053918</v>
+        <v>54.47769519076508</v>
       </c>
       <c r="K12" t="n">
-        <v>198.2212162150204</v>
+        <v>64.31325412177102</v>
       </c>
       <c r="L12" t="n">
-        <v>485.372499228708</v>
+        <v>351.4645371354586</v>
       </c>
       <c r="M12" t="n">
-        <v>860.7391284329315</v>
+        <v>726.8311663396821</v>
       </c>
       <c r="N12" t="n">
-        <v>869.2592193232675</v>
+        <v>1102.197795543906</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.678769062278</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="P12" t="n">
         <v>1413.617345282916</v>
@@ -5151,19 +5151,19 @@
         <v>1279.757478998528</v>
       </c>
       <c r="U12" t="n">
-        <v>1051.55154056386</v>
+        <v>1184.205324258547</v>
       </c>
       <c r="V12" t="n">
-        <v>949.0532160268039</v>
+        <v>949.053216026804</v>
       </c>
       <c r="W12" t="n">
-        <v>694.8158592986022</v>
+        <v>827.469642993289</v>
       </c>
       <c r="X12" t="n">
-        <v>619.6181427877561</v>
+        <v>752.2719264824428</v>
       </c>
       <c r="Y12" t="n">
-        <v>435.5544030851125</v>
+        <v>677.1654114121757</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.1827153748809</v>
+        <v>197.1827153748813</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9003161416608</v>
+        <v>160.9003161416611</v>
       </c>
       <c r="D13" t="n">
-        <v>143.4374604240118</v>
+        <v>143.4374604240121</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1781505363055</v>
+        <v>128.1781505363057</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9419867330819</v>
+        <v>113.941986733082</v>
       </c>
       <c r="G13" t="n">
-        <v>77.13320954509587</v>
+        <v>77.13320954509598</v>
       </c>
       <c r="H13" t="n">
-        <v>47.92425806010318</v>
+        <v>47.92425806010324</v>
       </c>
       <c r="I13" t="n">
         <v>30.3326569053918</v>
       </c>
       <c r="J13" t="n">
-        <v>30.3326569053918</v>
+        <v>79.75256485277123</v>
       </c>
       <c r="K13" t="n">
-        <v>83.36029855730399</v>
+        <v>83.36029855730496</v>
       </c>
       <c r="L13" t="n">
-        <v>273.5173636019907</v>
+        <v>273.5173636019916</v>
       </c>
       <c r="M13" t="n">
-        <v>477.3329175521732</v>
+        <v>477.3329175521741</v>
       </c>
       <c r="N13" t="n">
-        <v>684.8282512933488</v>
+        <v>684.8282512933496</v>
       </c>
       <c r="O13" t="n">
-        <v>870.392506175441</v>
+        <v>870.3925061754417</v>
       </c>
       <c r="P13" t="n">
-        <v>1024.418659762039</v>
+        <v>1024.41865976204</v>
       </c>
       <c r="Q13" t="n">
-        <v>1087.622341912336</v>
+        <v>1087.622341912337</v>
       </c>
       <c r="R13" t="n">
-        <v>1051.32206675492</v>
+        <v>1051.322066754921</v>
       </c>
       <c r="S13" t="n">
-        <v>961.6227717180702</v>
+        <v>961.6227717180708</v>
       </c>
       <c r="T13" t="n">
-        <v>864.9911181552457</v>
+        <v>864.9911181552462</v>
       </c>
       <c r="U13" t="n">
-        <v>708.4460500160819</v>
+        <v>708.4460500160824</v>
       </c>
       <c r="V13" t="n">
-        <v>586.4153455048818</v>
+        <v>586.4153455048822</v>
       </c>
       <c r="W13" t="n">
-        <v>429.6519591626079</v>
+        <v>429.6519591626084</v>
       </c>
       <c r="X13" t="n">
-        <v>334.3161919592773</v>
+        <v>334.3161919592777</v>
       </c>
       <c r="Y13" t="n">
-        <v>246.1773965104339</v>
+        <v>246.1773965104343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>938.1689165558735</v>
+        <v>1005.20124061903</v>
       </c>
       <c r="C14" t="n">
-        <v>938.1689165558735</v>
+        <v>848.140916733794</v>
       </c>
       <c r="D14" t="n">
-        <v>712.5570016438096</v>
+        <v>848.140916733794</v>
       </c>
       <c r="E14" t="n">
-        <v>459.4225327402524</v>
+        <v>595.0064478302365</v>
       </c>
       <c r="F14" t="n">
-        <v>459.4225327402524</v>
+        <v>316.6743267353156</v>
       </c>
       <c r="G14" t="n">
-        <v>296.0236343335849</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H14" t="n">
-        <v>90.91735937804253</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I14" t="n">
         <v>30.3326569053918</v>
@@ -5294,7 +5294,7 @@
         <v>1312.915890680385</v>
       </c>
       <c r="P14" t="n">
-        <v>1473.364432310758</v>
+        <v>1473.364432310759</v>
       </c>
       <c r="Q14" t="n">
         <v>1516.63284526959</v>
@@ -5303,25 +5303,25 @@
         <v>1516.63284526959</v>
       </c>
       <c r="S14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="U14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="V14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="W14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="X14" t="n">
-        <v>1449.600521206434</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="Y14" t="n">
-        <v>1192.114972925309</v>
+        <v>1259.147296988465</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>532.6466334544181</v>
+        <v>376.2962906974204</v>
       </c>
       <c r="C15" t="n">
-        <v>358.1936041732911</v>
+        <v>334.49704511098</v>
       </c>
       <c r="D15" t="n">
-        <v>209.2591945120398</v>
+        <v>185.5626354497288</v>
       </c>
       <c r="E15" t="n">
-        <v>182.675523201271</v>
+        <v>158.97896413896</v>
       </c>
       <c r="F15" t="n">
-        <v>36.14096522815598</v>
+        <v>145.0981898605316</v>
       </c>
       <c r="G15" t="n">
         <v>30.3326569053918</v>
@@ -5355,7 +5355,7 @@
         <v>30.3326569053918</v>
       </c>
       <c r="J15" t="n">
-        <v>30.3326569053918</v>
+        <v>54.47769519076508</v>
       </c>
       <c r="K15" t="n">
         <v>64.31325412177102</v>
@@ -5385,22 +5385,22 @@
         <v>1480.860889453187</v>
       </c>
       <c r="T15" t="n">
-        <v>1303.454038060838</v>
+        <v>1412.411262693214</v>
       </c>
       <c r="U15" t="n">
-        <v>1207.901883320857</v>
+        <v>1184.205324258546</v>
       </c>
       <c r="V15" t="n">
-        <v>972.7497750891146</v>
+        <v>1081.70699972149</v>
       </c>
       <c r="W15" t="n">
-        <v>718.5124183609129</v>
+        <v>827.4696429932885</v>
       </c>
       <c r="X15" t="n">
-        <v>643.3147018500667</v>
+        <v>752.2719264824424</v>
       </c>
       <c r="Y15" t="n">
-        <v>568.2081867797995</v>
+        <v>544.5116277174884</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.1827153748815</v>
+        <v>197.1827153748813</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9003161416613</v>
+        <v>160.9003161416611</v>
       </c>
       <c r="D16" t="n">
-        <v>143.4374604240122</v>
+        <v>143.4374604240121</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1781505363058</v>
+        <v>128.1781505363057</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9419867330821</v>
+        <v>113.941986733082</v>
       </c>
       <c r="G16" t="n">
-        <v>77.13320954509604</v>
+        <v>77.13320954509598</v>
       </c>
       <c r="H16" t="n">
-        <v>47.92425806010327</v>
+        <v>47.92425806010324</v>
       </c>
       <c r="I16" t="n">
         <v>30.3326569053918</v>
@@ -5437,22 +5437,22 @@
         <v>30.3326569053918</v>
       </c>
       <c r="K16" t="n">
-        <v>163.9543640090879</v>
+        <v>163.954364009088</v>
       </c>
       <c r="L16" t="n">
         <v>354.1114290537746</v>
       </c>
       <c r="M16" t="n">
-        <v>477.3329175521745</v>
+        <v>557.926983003957</v>
       </c>
       <c r="N16" t="n">
-        <v>684.82825129335</v>
+        <v>748.0319334436464</v>
       </c>
       <c r="O16" t="n">
-        <v>870.3925061754421</v>
+        <v>933.5961883257385</v>
       </c>
       <c r="P16" t="n">
-        <v>1024.418659762041</v>
+        <v>1087.622341912337</v>
       </c>
       <c r="Q16" t="n">
         <v>1087.622341912337</v>
@@ -5461,25 +5461,25 @@
         <v>1051.322066754921</v>
       </c>
       <c r="S16" t="n">
-        <v>961.6227717180712</v>
+        <v>961.6227717180708</v>
       </c>
       <c r="T16" t="n">
-        <v>864.9911181552467</v>
+        <v>864.9911181552462</v>
       </c>
       <c r="U16" t="n">
-        <v>708.4460500160828</v>
+        <v>708.4460500160824</v>
       </c>
       <c r="V16" t="n">
-        <v>586.4153455048826</v>
+        <v>586.4153455048822</v>
       </c>
       <c r="W16" t="n">
-        <v>429.6519591626086</v>
+        <v>429.6519591626084</v>
       </c>
       <c r="X16" t="n">
-        <v>334.316191959278</v>
+        <v>334.3161919592777</v>
       </c>
       <c r="Y16" t="n">
-        <v>246.1773965104346</v>
+        <v>246.1773965104343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>869.9212986872031</v>
+        <v>869.9212986872029</v>
       </c>
       <c r="C17" t="n">
-        <v>741.1536556347987</v>
+        <v>741.1536556347985</v>
       </c>
       <c r="D17" t="n">
-        <v>623.0828309160551</v>
+        <v>623.0828309160552</v>
       </c>
       <c r="E17" t="n">
-        <v>477.489452205818</v>
+        <v>477.4894522058181</v>
       </c>
       <c r="F17" t="n">
-        <v>306.6984213042176</v>
+        <v>306.6984213042177</v>
       </c>
       <c r="G17" t="n">
         <v>127.8978416676137</v>
@@ -5513,25 +5513,25 @@
         <v>30.3326569053918</v>
       </c>
       <c r="J17" t="n">
-        <v>60.28333378761812</v>
+        <v>60.28333378761818</v>
       </c>
       <c r="K17" t="n">
-        <v>225.9164387697123</v>
+        <v>225.9164387697125</v>
       </c>
       <c r="L17" t="n">
-        <v>483.6755793232413</v>
+        <v>483.6755793232415</v>
       </c>
       <c r="M17" t="n">
-        <v>787.0888335313487</v>
+        <v>787.088833531349</v>
       </c>
       <c r="N17" t="n">
-        <v>1080.779633855521</v>
+        <v>1080.779633855522</v>
       </c>
       <c r="O17" t="n">
         <v>1312.915890680385</v>
       </c>
       <c r="P17" t="n">
-        <v>1473.364432310758</v>
+        <v>1473.364432310759</v>
       </c>
       <c r="Q17" t="n">
         <v>1516.63284526959</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.6156709557691</v>
+        <v>464.493832551358</v>
       </c>
       <c r="C18" t="n">
-        <v>360.6156709557691</v>
+        <v>290.0408032702309</v>
       </c>
       <c r="D18" t="n">
-        <v>360.6156709557691</v>
+        <v>141.1063936089797</v>
       </c>
       <c r="E18" t="n">
-        <v>360.6156709557691</v>
+        <v>141.1063936089797</v>
       </c>
       <c r="F18" t="n">
-        <v>360.6156709557691</v>
+        <v>141.1063936089797</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1535789383183</v>
+        <v>141.1063936089797</v>
       </c>
       <c r="H18" t="n">
-        <v>111.3798422347304</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I18" t="n">
         <v>30.3326569053918</v>
       </c>
       <c r="J18" t="n">
-        <v>54.47769519076508</v>
+        <v>54.47769519076509</v>
       </c>
       <c r="K18" t="n">
-        <v>54.47769519076508</v>
+        <v>222.3662545003937</v>
       </c>
       <c r="L18" t="n">
-        <v>341.6289782044526</v>
+        <v>222.3662545003937</v>
       </c>
       <c r="M18" t="n">
-        <v>716.9956074086762</v>
+        <v>493.892590119044</v>
       </c>
       <c r="N18" t="n">
-        <v>1092.3622366129</v>
+        <v>869.2592193232675</v>
       </c>
       <c r="O18" t="n">
-        <v>1403.78178635191</v>
+        <v>1180.678769062278</v>
       </c>
       <c r="P18" t="n">
-        <v>1516.63284526959</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="Q18" t="n">
         <v>1516.63284526959</v>
@@ -5619,25 +5619,25 @@
         <v>1432.148359723619</v>
       </c>
       <c r="S18" t="n">
-        <v>1263.722620212529</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="T18" t="n">
-        <v>1263.722620212529</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="U18" t="n">
-        <v>1035.516681777861</v>
+        <v>1203.942421288951</v>
       </c>
       <c r="V18" t="n">
-        <v>800.3645735461187</v>
+        <v>1203.942421288951</v>
       </c>
       <c r="W18" t="n">
-        <v>568.467171161302</v>
+        <v>1048.320968541913</v>
       </c>
       <c r="X18" t="n">
-        <v>360.6156709557691</v>
+        <v>840.4694683363798</v>
       </c>
       <c r="Y18" t="n">
-        <v>360.6156709557691</v>
+        <v>632.7091695714259</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="C19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="D19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="E19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="F19" t="n">
-        <v>30.3326569053918</v>
+        <v>65.32304890826174</v>
       </c>
       <c r="G19" t="n">
-        <v>30.3326569053918</v>
+        <v>65.32304890826174</v>
       </c>
       <c r="H19" t="n">
-        <v>30.3326569053918</v>
+        <v>65.32304890826174</v>
       </c>
       <c r="I19" t="n">
         <v>30.3326569053918</v>
@@ -5674,7 +5674,7 @@
         <v>30.3326569053918</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94039060992553</v>
+        <v>33.94039060992554</v>
       </c>
       <c r="L19" t="n">
         <v>94.08348225544978</v>
@@ -5698,25 +5698,25 @@
         <v>324.9288848188486</v>
       </c>
       <c r="S19" t="n">
-        <v>143.0485453180682</v>
+        <v>324.9288848188486</v>
       </c>
       <c r="T19" t="n">
-        <v>143.0485453180682</v>
+        <v>324.9288848188486</v>
       </c>
       <c r="U19" t="n">
-        <v>94.04456737222492</v>
+        <v>275.9249068730053</v>
       </c>
       <c r="V19" t="n">
-        <v>79.55495305434523</v>
+        <v>261.4352925551256</v>
       </c>
       <c r="W19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="X19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.3326569053918</v>
+        <v>212.2129964061721</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869.9212986872024</v>
+        <v>869.9212986872026</v>
       </c>
       <c r="C20" t="n">
-        <v>741.1536556347978</v>
+        <v>741.153655634798</v>
       </c>
       <c r="D20" t="n">
-        <v>623.0828309160545</v>
+        <v>623.0828309160547</v>
       </c>
       <c r="E20" t="n">
-        <v>477.4894522058175</v>
+        <v>477.4894522058177</v>
       </c>
       <c r="F20" t="n">
         <v>306.6984213042173</v>
@@ -5750,25 +5750,25 @@
         <v>30.3326569053918</v>
       </c>
       <c r="J20" t="n">
-        <v>60.28333378761818</v>
+        <v>60.28333378761812</v>
       </c>
       <c r="K20" t="n">
-        <v>225.9164387697124</v>
+        <v>225.9164387697123</v>
       </c>
       <c r="L20" t="n">
-        <v>483.6755793232414</v>
+        <v>483.6755793232413</v>
       </c>
       <c r="M20" t="n">
-        <v>787.0888335313489</v>
+        <v>787.0888335313487</v>
       </c>
       <c r="N20" t="n">
-        <v>1080.779633855522</v>
+        <v>1080.779633855521</v>
       </c>
       <c r="O20" t="n">
         <v>1312.915890680385</v>
       </c>
       <c r="P20" t="n">
-        <v>1473.364432310759</v>
+        <v>1473.364432310758</v>
       </c>
       <c r="Q20" t="n">
         <v>1516.63284526959</v>
@@ -5789,7 +5789,7 @@
         <v>1412.115388706301</v>
       </c>
       <c r="W20" t="n">
-        <v>1299.541607324194</v>
+        <v>1299.541607324195</v>
       </c>
       <c r="X20" t="n">
         <v>1166.270722951122</v>
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>834.27874089287</v>
+        <v>360.6156709557691</v>
       </c>
       <c r="C21" t="n">
-        <v>659.825711611743</v>
+        <v>360.6156709557691</v>
       </c>
       <c r="D21" t="n">
-        <v>510.8913019504918</v>
+        <v>360.6156709557691</v>
       </c>
       <c r="E21" t="n">
-        <v>351.6538469450363</v>
+        <v>360.6156709557691</v>
       </c>
       <c r="F21" t="n">
-        <v>205.1192889719212</v>
+        <v>360.6156709557691</v>
       </c>
       <c r="G21" t="n">
-        <v>66.65719695447041</v>
+        <v>222.1535789383183</v>
       </c>
       <c r="H21" t="n">
-        <v>30.3326569053918</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="I21" t="n">
         <v>30.3326569053918</v>
       </c>
       <c r="J21" t="n">
-        <v>54.47769519076509</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K21" t="n">
-        <v>54.47769519076509</v>
+        <v>198.2212162150204</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5259609148204</v>
+        <v>485.372499228708</v>
       </c>
       <c r="M21" t="n">
-        <v>493.892590119044</v>
+        <v>860.7391284329315</v>
       </c>
       <c r="N21" t="n">
         <v>869.2592193232675</v>
@@ -5856,25 +5856,25 @@
         <v>1432.148359723619</v>
       </c>
       <c r="S21" t="n">
-        <v>1432.148359723619</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="T21" t="n">
-        <v>1432.148359723619</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="U21" t="n">
-        <v>1432.148359723619</v>
+        <v>1035.516681777861</v>
       </c>
       <c r="V21" t="n">
-        <v>1432.148359723619</v>
+        <v>800.3645735461187</v>
       </c>
       <c r="W21" t="n">
-        <v>1418.105876883425</v>
+        <v>736.591306740791</v>
       </c>
       <c r="X21" t="n">
-        <v>1210.254376677892</v>
+        <v>736.591306740791</v>
       </c>
       <c r="Y21" t="n">
-        <v>1002.494077912938</v>
+        <v>528.8310079758371</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="C22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="D22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="E22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="F22" t="n">
-        <v>192.1953920850713</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="G22" t="n">
-        <v>192.1953920850713</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H22" t="n">
         <v>30.3326569053918</v>
@@ -5911,10 +5911,10 @@
         <v>30.3326569053918</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94039060992554</v>
+        <v>33.94039060992553</v>
       </c>
       <c r="L22" t="n">
-        <v>94.08348225544978</v>
+        <v>94.08348225544977</v>
       </c>
       <c r="M22" t="n">
         <v>167.8850628064698</v>
@@ -5929,31 +5929,31 @@
         <v>324.9288848188486</v>
       </c>
       <c r="Q22" t="n">
-        <v>304.9112804977478</v>
+        <v>256.7620740353922</v>
       </c>
       <c r="R22" t="n">
-        <v>304.9112804977478</v>
+        <v>256.7620740353922</v>
       </c>
       <c r="S22" t="n">
-        <v>304.9112804977478</v>
+        <v>256.7620740353922</v>
       </c>
       <c r="T22" t="n">
-        <v>304.9112804977478</v>
+        <v>256.7620740353922</v>
       </c>
       <c r="U22" t="n">
-        <v>255.9073025519044</v>
+        <v>207.7580960895488</v>
       </c>
       <c r="V22" t="n">
-        <v>241.4176882340247</v>
+        <v>193.2684817716691</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="X22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.1953920850713</v>
+        <v>144.0461856227156</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>869.9212986872028</v>
+        <v>869.9212986872029</v>
       </c>
       <c r="C23" t="n">
-        <v>741.1536556347983</v>
+        <v>741.1536556347984</v>
       </c>
       <c r="D23" t="n">
         <v>623.0828309160551</v>
@@ -5984,28 +5984,28 @@
         <v>30.3326569053918</v>
       </c>
       <c r="I23" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539215</v>
       </c>
       <c r="J23" t="n">
-        <v>60.28333378761812</v>
+        <v>60.28333378761846</v>
       </c>
       <c r="K23" t="n">
-        <v>225.9164387697123</v>
+        <v>225.9164387697126</v>
       </c>
       <c r="L23" t="n">
-        <v>483.6755793232413</v>
+        <v>483.6755793232416</v>
       </c>
       <c r="M23" t="n">
-        <v>787.0888335313487</v>
+        <v>787.088833531349</v>
       </c>
       <c r="N23" t="n">
-        <v>1080.779633855521</v>
+        <v>1080.779633855522</v>
       </c>
       <c r="O23" t="n">
         <v>1312.915890680385</v>
       </c>
       <c r="P23" t="n">
-        <v>1473.364432310758</v>
+        <v>1473.364432310759</v>
       </c>
       <c r="Q23" t="n">
         <v>1516.63284526959</v>
@@ -6023,7 +6023,7 @@
         <v>1502.983402161865</v>
       </c>
       <c r="V23" t="n">
-        <v>1412.115388706301</v>
+        <v>1412.115388706302</v>
       </c>
       <c r="W23" t="n">
         <v>1299.541607324195</v>
@@ -6032,7 +6032,7 @@
         <v>1166.270722951122</v>
       </c>
       <c r="Y23" t="n">
-        <v>1016.326264863317</v>
+        <v>1016.326264863318</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.9742130866525</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="C24" t="n">
-        <v>691.5211838055255</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="D24" t="n">
-        <v>542.5867741442743</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="E24" t="n">
-        <v>383.3493191388188</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="F24" t="n">
-        <v>236.8147611657037</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="G24" t="n">
-        <v>98.35266914825291</v>
+        <v>141.1063936089797</v>
       </c>
       <c r="H24" t="n">
-        <v>98.35266914825291</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I24" t="n">
         <v>30.3326569053918</v>
       </c>
       <c r="J24" t="n">
-        <v>54.47769519076508</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K24" t="n">
-        <v>222.3662545003937</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="L24" t="n">
-        <v>509.5175375140813</v>
+        <v>317.4839399190793</v>
       </c>
       <c r="M24" t="n">
-        <v>884.8841667183048</v>
+        <v>493.8925901190438</v>
       </c>
       <c r="N24" t="n">
-        <v>1260.250795922528</v>
+        <v>869.2592193232673</v>
       </c>
       <c r="O24" t="n">
-        <v>1260.250795922528</v>
+        <v>1180.678769062278</v>
       </c>
       <c r="P24" t="n">
         <v>1413.617345282916</v>
@@ -6090,28 +6090,28 @@
         <v>1516.63284526959</v>
       </c>
       <c r="R24" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S24" t="n">
-        <v>1516.63284526959</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="T24" t="n">
-        <v>1516.63284526959</v>
+        <v>1062.61920975787</v>
       </c>
       <c r="U24" t="n">
-        <v>1288.426906834922</v>
+        <v>1062.61920975787</v>
       </c>
       <c r="V24" t="n">
-        <v>1288.426906834922</v>
+        <v>827.4671015261272</v>
       </c>
       <c r="W24" t="n">
-        <v>1034.189550106721</v>
+        <v>695.1802845969173</v>
       </c>
       <c r="X24" t="n">
-        <v>1034.189550106721</v>
+        <v>487.3287843913844</v>
       </c>
       <c r="Y24" t="n">
-        <v>1034.189550106721</v>
+        <v>279.5684856264305</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.3326569053918</v>
+        <v>199.2688398332987</v>
       </c>
       <c r="C25" t="n">
         <v>30.3326569053918</v>
@@ -6151,7 +6151,7 @@
         <v>33.94039060992552</v>
       </c>
       <c r="L25" t="n">
-        <v>94.08348225544977</v>
+        <v>94.08348225544975</v>
       </c>
       <c r="M25" t="n">
         <v>167.8850628064698</v>
@@ -6166,31 +6166,31 @@
         <v>324.9288848188486</v>
       </c>
       <c r="Q25" t="n">
-        <v>256.7620740353922</v>
+        <v>324.9288848188486</v>
       </c>
       <c r="R25" t="n">
-        <v>143.0485453180683</v>
+        <v>324.9288848188486</v>
       </c>
       <c r="S25" t="n">
-        <v>143.0485453180683</v>
+        <v>311.9847282459752</v>
       </c>
       <c r="T25" t="n">
-        <v>143.0485453180683</v>
+        <v>311.9847282459752</v>
       </c>
       <c r="U25" t="n">
-        <v>94.04456737222496</v>
+        <v>262.9807503001319</v>
       </c>
       <c r="V25" t="n">
-        <v>79.55495305434525</v>
+        <v>248.4911359822522</v>
       </c>
       <c r="W25" t="n">
-        <v>30.3326569053918</v>
+        <v>199.2688398332987</v>
       </c>
       <c r="X25" t="n">
-        <v>30.3326569053918</v>
+        <v>199.2688398332987</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.3326569053918</v>
+        <v>199.2688398332987</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1043.061199758923</v>
       </c>
       <c r="E26" t="n">
-        <v>809.0666194929707</v>
+        <v>809.0666194929709</v>
       </c>
       <c r="F26" t="n">
         <v>549.8743870356552</v>
@@ -6218,7 +6218,7 @@
         <v>282.672605843336</v>
       </c>
       <c r="H26" t="n">
-        <v>96.70621952539881</v>
+        <v>96.70621952539886</v>
       </c>
       <c r="I26" t="n">
         <v>55.2614056903535</v>
@@ -6230,7 +6230,7 @@
         <v>548.3911440604329</v>
       </c>
       <c r="L26" t="n">
-        <v>954.923262866841</v>
+        <v>954.9232628668412</v>
       </c>
       <c r="M26" t="n">
         <v>1407.109495327828</v>
@@ -6257,7 +6257,7 @@
         <v>2643.820826558179</v>
       </c>
       <c r="U26" t="n">
-        <v>2541.770181894738</v>
+        <v>2541.770181894739</v>
       </c>
       <c r="V26" t="n">
         <v>2362.50096688346</v>
@@ -6269,7 +6269,7 @@
         <v>1939.85389801685</v>
       </c>
       <c r="Y26" t="n">
-        <v>1701.50823837333</v>
+        <v>1701.508238373331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.4208576113023</v>
+        <v>1386.758190249187</v>
       </c>
       <c r="C27" t="n">
-        <v>509.9678283301753</v>
+        <v>1364.098833300352</v>
       </c>
       <c r="D27" t="n">
-        <v>361.033418668924</v>
+        <v>1215.164423639101</v>
       </c>
       <c r="E27" t="n">
-        <v>201.7959636634685</v>
+        <v>1055.926968633646</v>
       </c>
       <c r="F27" t="n">
-        <v>55.2614056903535</v>
+        <v>1055.926968633646</v>
       </c>
       <c r="G27" t="n">
-        <v>55.2614056903535</v>
+        <v>917.4648766161948</v>
       </c>
       <c r="H27" t="n">
-        <v>55.2614056903535</v>
+        <v>917.4648766161948</v>
       </c>
       <c r="I27" t="n">
-        <v>55.2614056903535</v>
+        <v>836.4176912868562</v>
       </c>
       <c r="J27" t="n">
-        <v>79.40644397572677</v>
+        <v>860.5627295722295</v>
       </c>
       <c r="K27" t="n">
-        <v>247.2950032853554</v>
+        <v>1028.451288881858</v>
       </c>
       <c r="L27" t="n">
-        <v>534.4462862990429</v>
+        <v>1315.602571895546</v>
       </c>
       <c r="M27" t="n">
-        <v>921.5175111653006</v>
+        <v>1702.673796761803</v>
       </c>
       <c r="N27" t="n">
-        <v>1334.540372974849</v>
+        <v>2115.696658571352</v>
       </c>
       <c r="O27" t="n">
-        <v>1645.95992271386</v>
+        <v>2427.116208310363</v>
       </c>
       <c r="P27" t="n">
-        <v>1878.898498934498</v>
+        <v>2660.054784531001</v>
       </c>
       <c r="Q27" t="n">
-        <v>1981.913998921172</v>
+        <v>2763.070284517675</v>
       </c>
       <c r="R27" t="n">
-        <v>1981.913998921172</v>
+        <v>2678.585798971704</v>
       </c>
       <c r="S27" t="n">
-        <v>1965.281931742374</v>
+        <v>2510.160059460614</v>
       </c>
       <c r="T27" t="n">
-        <v>1834.049724664177</v>
+        <v>2309.056649005955</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.637458561801</v>
+        <v>2080.850710571287</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.485350330059</v>
+        <v>1997.492274671836</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.247993601857</v>
+        <v>1743.254917943634</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.396493396324</v>
+        <v>1687.197090070394</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.6361946313702</v>
+        <v>1479.43679130544</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.1418676837364</v>
+        <v>100.1418676837365</v>
       </c>
       <c r="C28" t="n">
-        <v>82.99935708812154</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="D28" t="n">
-        <v>82.99935708812154</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="E28" t="n">
-        <v>82.99935708812154</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="F28" t="n">
-        <v>82.99935708812154</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="G28" t="n">
-        <v>65.33046853774087</v>
+        <v>65.3304685377409</v>
       </c>
       <c r="H28" t="n">
         <v>55.2614056903535</v>
       </c>
       <c r="I28" t="n">
-        <v>55.2614056903535</v>
+        <v>56.77888225233782</v>
       </c>
       <c r="J28" t="n">
-        <v>127.2203202420267</v>
+        <v>77.40733381064894</v>
       </c>
       <c r="K28" t="n">
-        <v>147.8253587640479</v>
+        <v>229.7880457680621</v>
       </c>
       <c r="L28" t="n">
-        <v>207.9684504095721</v>
+        <v>438.7041156664657</v>
       </c>
       <c r="M28" t="n">
-        <v>281.7700309605921</v>
+        <v>512.5056962174857</v>
       </c>
       <c r="N28" t="n">
-        <v>359.2513913026053</v>
+        <v>589.9870565594988</v>
       </c>
       <c r="O28" t="n">
-        <v>563.5746510384145</v>
+        <v>794.310316295308</v>
       </c>
       <c r="P28" t="n">
-        <v>736.3598094787299</v>
+        <v>818.322496482744</v>
       </c>
       <c r="Q28" t="n">
-        <v>818.3224964827436</v>
+        <v>818.322496482744</v>
       </c>
       <c r="R28" t="n">
-        <v>801.1621099629327</v>
+        <v>801.1621099629331</v>
       </c>
       <c r="S28" t="n">
-        <v>730.6027035636884</v>
+        <v>730.6027035636887</v>
       </c>
       <c r="T28" t="n">
-        <v>653.1109386384692</v>
+        <v>653.1109386384694</v>
       </c>
       <c r="U28" t="n">
-        <v>515.7057591369107</v>
+        <v>515.705759136911</v>
       </c>
       <c r="V28" t="n">
-        <v>412.8149432633159</v>
+        <v>412.8149432633161</v>
       </c>
       <c r="W28" t="n">
-        <v>275.1914455586473</v>
+        <v>275.1914455586475</v>
       </c>
       <c r="X28" t="n">
-        <v>198.995566992922</v>
+        <v>198.9955669929222</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.996660181684</v>
+        <v>129.9966601816841</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1466.702070641501</v>
+        <v>1466.7020706415</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.533226033382</v>
+        <v>1249.533226033381</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.061199758923</v>
+        <v>1043.061199758922</v>
       </c>
       <c r="E29" t="n">
-        <v>809.0666194929711</v>
+        <v>809.0666194929702</v>
       </c>
       <c r="F29" t="n">
-        <v>549.8743870356557</v>
+        <v>549.8743870356548</v>
       </c>
       <c r="G29" t="n">
-        <v>282.6726058433364</v>
+        <v>282.6726058433355</v>
       </c>
       <c r="H29" t="n">
-        <v>96.70621952539878</v>
+        <v>96.70621952539886</v>
       </c>
       <c r="I29" t="n">
         <v>55.2614056903535</v>
       </c>
       <c r="J29" t="n">
-        <v>233.9850608254587</v>
+        <v>233.9850608254596</v>
       </c>
       <c r="K29" t="n">
-        <v>548.3911440604325</v>
+        <v>548.3911440604334</v>
       </c>
       <c r="L29" t="n">
-        <v>954.9232628668415</v>
+        <v>954.9232628668417</v>
       </c>
       <c r="M29" t="n">
         <v>1407.109495327828</v>
@@ -6506,7 +6506,7 @@
         <v>1939.853898016851</v>
       </c>
       <c r="Y29" t="n">
-        <v>1701.508238373331</v>
+        <v>1701.50823837333</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>614.5496542348396</v>
+        <v>618.9334849675259</v>
       </c>
       <c r="C30" t="n">
-        <v>440.0966249537126</v>
+        <v>444.4804556863989</v>
       </c>
       <c r="D30" t="n">
-        <v>291.1622152924614</v>
+        <v>295.5460460251476</v>
       </c>
       <c r="E30" t="n">
-        <v>131.9247602870059</v>
+        <v>136.3085910196921</v>
       </c>
       <c r="F30" t="n">
-        <v>131.9247602870059</v>
+        <v>136.3085910196921</v>
       </c>
       <c r="G30" t="n">
-        <v>131.9247602870059</v>
+        <v>136.3085910196921</v>
       </c>
       <c r="H30" t="n">
-        <v>131.9247602870059</v>
+        <v>136.3085910196921</v>
       </c>
       <c r="I30" t="n">
         <v>55.2614056903535</v>
@@ -6567,25 +6567,25 @@
         <v>1981.913998921172</v>
       </c>
       <c r="S30" t="n">
-        <v>1965.281931742374</v>
+        <v>1813.488259410082</v>
       </c>
       <c r="T30" t="n">
-        <v>1915.972193620007</v>
+        <v>1612.384848955423</v>
       </c>
       <c r="U30" t="n">
-        <v>1687.766255185339</v>
+        <v>1535.972582853047</v>
       </c>
       <c r="V30" t="n">
-        <v>1452.614146953596</v>
+        <v>1300.820474621304</v>
       </c>
       <c r="W30" t="n">
-        <v>1198.376790225394</v>
+        <v>1046.583117893102</v>
       </c>
       <c r="X30" t="n">
-        <v>990.5252900198616</v>
+        <v>843.1154484202558</v>
       </c>
       <c r="Y30" t="n">
-        <v>782.7649912549077</v>
+        <v>787.1488219875939</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.88871177593333</v>
+        <v>96.33851245096052</v>
       </c>
       <c r="C31" t="n">
-        <v>72.74620118031855</v>
+        <v>79.19600185534566</v>
       </c>
       <c r="D31" t="n">
-        <v>74.38986114516783</v>
+        <v>79.19600185534566</v>
       </c>
       <c r="E31" t="n">
-        <v>78.19321637794386</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="F31" t="n">
-        <v>82.99935708812143</v>
+        <v>82.9993570881216</v>
       </c>
       <c r="G31" t="n">
-        <v>65.33046853774081</v>
+        <v>65.3304685377409</v>
       </c>
       <c r="H31" t="n">
         <v>55.2614056903535</v>
@@ -6622,49 +6622,49 @@
         <v>55.2614056903535</v>
       </c>
       <c r="K31" t="n">
-        <v>207.6421176477667</v>
+        <v>207.6421176477666</v>
       </c>
       <c r="L31" t="n">
-        <v>416.5581875461705</v>
+        <v>416.5581875461703</v>
       </c>
       <c r="M31" t="n">
-        <v>490.3597680971905</v>
+        <v>490.3597680971903</v>
       </c>
       <c r="N31" t="n">
-        <v>567.8411284392035</v>
+        <v>567.8411284392034</v>
       </c>
       <c r="O31" t="n">
-        <v>623.3914099221332</v>
+        <v>623.3914099221331</v>
       </c>
       <c r="P31" t="n">
-        <v>726.1066535709264</v>
+        <v>732.5564542459541</v>
       </c>
       <c r="Q31" t="n">
-        <v>808.0693405749403</v>
+        <v>814.5191412499679</v>
       </c>
       <c r="R31" t="n">
-        <v>790.9089540551294</v>
+        <v>797.358754730157</v>
       </c>
       <c r="S31" t="n">
-        <v>720.349547655885</v>
+        <v>726.7993483309126</v>
       </c>
       <c r="T31" t="n">
-        <v>642.8577827306658</v>
+        <v>649.3075834056934</v>
       </c>
       <c r="U31" t="n">
-        <v>505.4526032291074</v>
+        <v>511.902403904135</v>
       </c>
       <c r="V31" t="n">
-        <v>402.5617873555126</v>
+        <v>409.0115880305401</v>
       </c>
       <c r="W31" t="n">
-        <v>264.9382896508441</v>
+        <v>271.3880903258715</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7424110851189</v>
+        <v>195.1922117601462</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.7435042738809</v>
+        <v>126.1933049489082</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>1437.484043812604</v>
       </c>
       <c r="C32" t="n">
-        <v>1224.31431460844</v>
+        <v>1224.314314608439</v>
       </c>
       <c r="D32" t="n">
-        <v>1021.841403737937</v>
+        <v>1021.841403737936</v>
       </c>
       <c r="E32" t="n">
-        <v>791.8459388759397</v>
+        <v>791.8459388759393</v>
       </c>
       <c r="F32" t="n">
-        <v>536.6528218225795</v>
+        <v>536.652821822579</v>
       </c>
       <c r="G32" t="n">
-        <v>273.4501560342143</v>
+        <v>273.4501560342148</v>
       </c>
       <c r="H32" t="n">
-        <v>91.48288512023271</v>
+        <v>91.48288512023279</v>
       </c>
       <c r="I32" t="n">
         <v>54.03718668914269</v>
       </c>
       <c r="J32" t="n">
-        <v>236.6803748316651</v>
+        <v>236.680374831665</v>
       </c>
       <c r="K32" t="n">
-        <v>555.0059910740553</v>
+        <v>459.7434629479776</v>
       </c>
       <c r="L32" t="n">
-        <v>965.4576428878803</v>
+        <v>870.1951147618025</v>
       </c>
       <c r="M32" t="n">
-        <v>1421.563408356284</v>
+        <v>1326.300880230206</v>
       </c>
       <c r="N32" t="n">
-        <v>1867.946719940752</v>
+        <v>1772.684191814674</v>
       </c>
       <c r="O32" t="n">
         <v>2157.512959899834</v>
@@ -6719,7 +6719,7 @@
         <v>2470.654012790503</v>
       </c>
       <c r="Q32" t="n">
-        <v>2666.61493700963</v>
+        <v>2666.614937009631</v>
       </c>
       <c r="R32" t="n">
         <v>2701.859334457135</v>
@@ -6731,7 +6731,7 @@
         <v>2590.60810730555</v>
       </c>
       <c r="U32" t="n">
-        <v>2492.556578046065</v>
+        <v>2492.556578046066</v>
       </c>
       <c r="V32" t="n">
         <v>2317.286478438742</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.1966386100914</v>
+        <v>572.6902149336556</v>
       </c>
       <c r="C33" t="n">
-        <v>508.7436093289645</v>
+        <v>398.2371856525286</v>
       </c>
       <c r="D33" t="n">
-        <v>359.8091996677132</v>
+        <v>249.3027759912774</v>
       </c>
       <c r="E33" t="n">
-        <v>200.5717446622577</v>
+        <v>245.8581087220692</v>
       </c>
       <c r="F33" t="n">
-        <v>54.03718668914269</v>
+        <v>245.8581087220692</v>
       </c>
       <c r="G33" t="n">
-        <v>54.03718668914269</v>
+        <v>245.8581087220692</v>
       </c>
       <c r="H33" t="n">
-        <v>54.03718668914269</v>
+        <v>135.0843720184813</v>
       </c>
       <c r="I33" t="n">
         <v>54.03718668914269</v>
       </c>
       <c r="J33" t="n">
-        <v>78.18222497451598</v>
+        <v>78.18222497451596</v>
       </c>
       <c r="K33" t="n">
         <v>246.0707842841446</v>
@@ -6801,28 +6801,28 @@
         <v>1980.689779919961</v>
       </c>
       <c r="R33" t="n">
-        <v>1980.689779919961</v>
+        <v>1896.20529437399</v>
       </c>
       <c r="S33" t="n">
-        <v>1874.137012977423</v>
+        <v>1727.7795548629</v>
       </c>
       <c r="T33" t="n">
-        <v>1828.826390259011</v>
+        <v>1682.468932144488</v>
       </c>
       <c r="U33" t="n">
-        <v>1756.41323956059</v>
+        <v>1610.055781446067</v>
       </c>
       <c r="V33" t="n">
-        <v>1521.261131328848</v>
+        <v>1374.903673214325</v>
       </c>
       <c r="W33" t="n">
-        <v>1267.023774600646</v>
+        <v>1120.666316486123</v>
       </c>
       <c r="X33" t="n">
-        <v>1059.172274395113</v>
+        <v>912.8148162805903</v>
       </c>
       <c r="Y33" t="n">
-        <v>851.4119756301595</v>
+        <v>740.9055519537237</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.92030247065964</v>
+        <v>86.92030247065989</v>
       </c>
       <c r="C34" t="n">
-        <v>73.77690727900011</v>
+        <v>73.77690727900028</v>
       </c>
       <c r="D34" t="n">
-        <v>73.77690727900011</v>
+        <v>73.77690727900028</v>
       </c>
       <c r="E34" t="n">
-        <v>73.77690727900011</v>
+        <v>73.77690727900028</v>
       </c>
       <c r="F34" t="n">
-        <v>73.77690727900011</v>
+        <v>73.77690727900028</v>
       </c>
       <c r="G34" t="n">
-        <v>60.10713413257475</v>
+        <v>60.10713413257483</v>
       </c>
       <c r="H34" t="n">
         <v>54.03718668914269</v>
       </c>
       <c r="I34" t="n">
-        <v>54.03718668914269</v>
+        <v>59.47419625854356</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03718668914269</v>
+        <v>135.3526438176332</v>
       </c>
       <c r="K34" t="n">
-        <v>57.64492039367641</v>
+        <v>138.960377522167</v>
       </c>
       <c r="L34" t="n">
-        <v>270.4805232994967</v>
+        <v>351.7959804279872</v>
       </c>
       <c r="M34" t="n">
-        <v>496.9746151108128</v>
+        <v>425.5975609790071</v>
       </c>
       <c r="N34" t="n">
-        <v>689.5464309637033</v>
+        <v>655.7714325813163</v>
       </c>
       <c r="O34" t="n">
-        <v>745.096712446633</v>
+        <v>711.321714064246</v>
       </c>
       <c r="P34" t="n">
-        <v>769.108892634069</v>
+        <v>735.333894251682</v>
       </c>
       <c r="Q34" t="n">
-        <v>769.108892634069</v>
+        <v>769.1088926340701</v>
       </c>
       <c r="R34" t="n">
-        <v>755.9476215182134</v>
+        <v>755.9476215182144</v>
       </c>
       <c r="S34" t="n">
-        <v>689.3873305229243</v>
+        <v>689.3873305229253</v>
       </c>
       <c r="T34" t="n">
-        <v>615.8946810016605</v>
+        <v>615.8946810016613</v>
       </c>
       <c r="U34" t="n">
-        <v>482.4886169040573</v>
+        <v>482.4886169040581</v>
       </c>
       <c r="V34" t="n">
-        <v>383.5969164344178</v>
+        <v>383.5969164344185</v>
       </c>
       <c r="W34" t="n">
-        <v>249.9725341337046</v>
+        <v>249.9725341337051</v>
       </c>
       <c r="X34" t="n">
-        <v>177.7757709719347</v>
+        <v>177.7757709719351</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.7759795646519</v>
+        <v>112.7759795646523</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>1090.014198100788</v>
       </c>
       <c r="C35" t="n">
-        <v>926.0622024415844</v>
+        <v>926.0622024415837</v>
       </c>
       <c r="D35" t="n">
-        <v>772.8070251160418</v>
+        <v>772.8070251160411</v>
       </c>
       <c r="E35" t="n">
-        <v>592.0292937990055</v>
+        <v>592.0292937990048</v>
       </c>
       <c r="F35" t="n">
-        <v>386.0539102906059</v>
+        <v>386.0539102906051</v>
       </c>
       <c r="G35" t="n">
-        <v>172.0689780472011</v>
+        <v>172.0689780472012</v>
       </c>
       <c r="H35" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85721229328448</v>
+        <v>50.85721229328442</v>
       </c>
       <c r="J35" t="n">
-        <v>80.80788917551079</v>
+        <v>80.80788917551074</v>
       </c>
       <c r="K35" t="n">
-        <v>246.440994157605</v>
+        <v>285.9415336227897</v>
       </c>
       <c r="L35" t="n">
-        <v>504.200134711134</v>
+        <v>543.7006741763187</v>
       </c>
       <c r="M35" t="n">
-        <v>807.6133889192413</v>
+        <v>1030.278752568796</v>
       </c>
       <c r="N35" t="n">
-        <v>1101.304189243414</v>
+        <v>1323.969552892969</v>
       </c>
       <c r="O35" t="n">
-        <v>1472.623111622913</v>
+        <v>1556.105809717832</v>
       </c>
       <c r="P35" t="n">
-        <v>1633.071653253286</v>
+        <v>1917.485163255918</v>
       </c>
       <c r="Q35" t="n">
-        <v>1877.270878119829</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="R35" t="n">
         <v>1960.753576214749</v>
@@ -6965,19 +6965,19 @@
         <v>1965.972033908999</v>
       </c>
       <c r="T35" t="n">
-        <v>1947.831860323971</v>
+        <v>1947.83186032397</v>
       </c>
       <c r="U35" t="n">
-        <v>1898.998064609447</v>
+        <v>1898.998064609446</v>
       </c>
       <c r="V35" t="n">
         <v>1772.945698547084</v>
       </c>
       <c r="W35" t="n">
-        <v>1625.187564558178</v>
+        <v>1625.187564558177</v>
       </c>
       <c r="X35" t="n">
-        <v>1456.732327578306</v>
+        <v>1456.732327578305</v>
       </c>
       <c r="Y35" t="n">
         <v>1271.603516883702</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>411.6392694667707</v>
+        <v>748.2803459979286</v>
       </c>
       <c r="C36" t="n">
-        <v>237.1862401856437</v>
+        <v>685.8467853509283</v>
       </c>
       <c r="D36" t="n">
-        <v>88.25183052439243</v>
+        <v>536.912375689677</v>
       </c>
       <c r="E36" t="n">
-        <v>39.31944067817997</v>
+        <v>377.6749206842215</v>
       </c>
       <c r="F36" t="n">
-        <v>39.31944067817997</v>
+        <v>231.1403627111065</v>
       </c>
       <c r="G36" t="n">
-        <v>39.31944067817997</v>
+        <v>231.1403627111065</v>
       </c>
       <c r="H36" t="n">
-        <v>39.31944067817997</v>
+        <v>120.3666260075186</v>
       </c>
       <c r="I36" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="J36" t="n">
-        <v>63.46447896355325</v>
+        <v>63.46447896355323</v>
       </c>
       <c r="K36" t="n">
-        <v>231.3530382731821</v>
+        <v>231.3530382731819</v>
       </c>
       <c r="L36" t="n">
-        <v>518.5043212868696</v>
+        <v>518.5043212868695</v>
       </c>
       <c r="M36" t="n">
-        <v>905.5755461531273</v>
+        <v>905.5755461531272</v>
       </c>
       <c r="N36" t="n">
         <v>1318.598407962676</v>
@@ -7041,25 +7041,25 @@
         <v>1881.487548363028</v>
       </c>
       <c r="S36" t="n">
-        <v>1713.061808851938</v>
+        <v>1881.487548363028</v>
       </c>
       <c r="T36" t="n">
-        <v>1713.061808851938</v>
+        <v>1881.487548363028</v>
       </c>
       <c r="U36" t="n">
-        <v>1484.85587041727</v>
+        <v>1653.28160992836</v>
       </c>
       <c r="V36" t="n">
-        <v>1249.703762185527</v>
+        <v>1418.129501696617</v>
       </c>
       <c r="W36" t="n">
-        <v>995.4664054573254</v>
+        <v>1163.892144968415</v>
       </c>
       <c r="X36" t="n">
-        <v>787.6149052517926</v>
+        <v>956.0406447628825</v>
       </c>
       <c r="Y36" t="n">
-        <v>579.8546064868387</v>
+        <v>748.2803459979286</v>
       </c>
     </row>
     <row r="37">
@@ -7084,58 +7084,58 @@
         <v>39.31944067817997</v>
       </c>
       <c r="G37" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="H37" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="I37" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="J37" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="K37" t="n">
-        <v>42.92717438271369</v>
+        <v>46.97845360809505</v>
       </c>
       <c r="L37" t="n">
-        <v>103.0702660282379</v>
+        <v>107.1215452536193</v>
       </c>
       <c r="M37" t="n">
-        <v>176.8718465792579</v>
+        <v>180.9231258046393</v>
       </c>
       <c r="N37" t="n">
-        <v>254.3532069212711</v>
+        <v>258.4044861466524</v>
       </c>
       <c r="O37" t="n">
-        <v>309.9034884042007</v>
+        <v>313.9547676295821</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9156685916367</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="Q37" t="n">
-        <v>333.9156685916367</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="R37" t="n">
-        <v>337.9669478170177</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="S37" t="n">
-        <v>320.6243903666892</v>
+        <v>320.6243903666896</v>
       </c>
       <c r="T37" t="n">
-        <v>296.3494743903858</v>
+        <v>296.3494743903861</v>
       </c>
       <c r="U37" t="n">
-        <v>212.1611438377432</v>
+        <v>212.1611438377435</v>
       </c>
       <c r="V37" t="n">
-        <v>162.4871769130643</v>
+        <v>162.4871769130644</v>
       </c>
       <c r="W37" t="n">
-        <v>78.08052815731158</v>
+        <v>78.08052815731169</v>
       </c>
       <c r="X37" t="n">
-        <v>55.10149854050216</v>
+        <v>55.10149854050221</v>
       </c>
       <c r="Y37" t="n">
         <v>39.31944067817997</v>
@@ -7151,10 +7151,10 @@
         <v>1090.014198100787</v>
       </c>
       <c r="C38" t="n">
-        <v>926.0622024415834</v>
+        <v>926.0622024415835</v>
       </c>
       <c r="D38" t="n">
-        <v>772.807025116041</v>
+        <v>772.8070251160409</v>
       </c>
       <c r="E38" t="n">
         <v>592.0292937990047</v>
@@ -7163,34 +7163,34 @@
         <v>386.053910290605</v>
       </c>
       <c r="G38" t="n">
-        <v>172.0689780472012</v>
+        <v>172.0689780472011</v>
       </c>
       <c r="H38" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85721229328443</v>
+        <v>50.85721229328448</v>
       </c>
       <c r="J38" t="n">
-        <v>80.80788917551074</v>
+        <v>219.9905547301458</v>
       </c>
       <c r="K38" t="n">
-        <v>246.4409941576049</v>
+        <v>385.62365971224</v>
       </c>
       <c r="L38" t="n">
-        <v>504.2001347111339</v>
+        <v>643.382800265769</v>
       </c>
       <c r="M38" t="n">
-        <v>807.6133889192413</v>
+        <v>946.7960544738763</v>
       </c>
       <c r="N38" t="n">
-        <v>1101.304189243414</v>
+        <v>1240.486854798049</v>
       </c>
       <c r="O38" t="n">
-        <v>1333.440446068278</v>
+        <v>1472.623111622913</v>
       </c>
       <c r="P38" t="n">
-        <v>1694.819799606363</v>
+        <v>1633.071653253286</v>
       </c>
       <c r="Q38" t="n">
         <v>1877.270878119829</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>806.9409846165796</v>
+        <v>647.7035296111241</v>
       </c>
       <c r="C39" t="n">
-        <v>632.4879553354526</v>
+        <v>473.2505003299971</v>
       </c>
       <c r="D39" t="n">
-        <v>483.5535456742013</v>
+        <v>324.3160906687458</v>
       </c>
       <c r="E39" t="n">
         <v>324.3160906687458</v>
@@ -7275,28 +7275,28 @@
         <v>1965.972033908999</v>
       </c>
       <c r="R39" t="n">
-        <v>1965.972033908999</v>
+        <v>1881.487548363028</v>
       </c>
       <c r="S39" t="n">
-        <v>1965.972033908999</v>
+        <v>1713.061808851938</v>
       </c>
       <c r="T39" t="n">
-        <v>1940.148186981678</v>
+        <v>1511.958398397278</v>
       </c>
       <c r="U39" t="n">
-        <v>1711.942248547011</v>
+        <v>1347.694272260347</v>
       </c>
       <c r="V39" t="n">
-        <v>1476.790140315268</v>
+        <v>1112.542164028604</v>
       </c>
       <c r="W39" t="n">
-        <v>1222.552783587066</v>
+        <v>1063.315328581611</v>
       </c>
       <c r="X39" t="n">
-        <v>1014.701283381534</v>
+        <v>855.463828376078</v>
       </c>
       <c r="Y39" t="n">
-        <v>806.9409846165796</v>
+        <v>647.7035296111241</v>
       </c>
     </row>
     <row r="40">
@@ -7333,46 +7333,46 @@
         <v>39.31944067817997</v>
       </c>
       <c r="K40" t="n">
-        <v>42.92717438271369</v>
+        <v>46.9784536080946</v>
       </c>
       <c r="L40" t="n">
-        <v>103.0702660282379</v>
+        <v>107.1215452536188</v>
       </c>
       <c r="M40" t="n">
-        <v>176.8718465792579</v>
+        <v>180.9231258046388</v>
       </c>
       <c r="N40" t="n">
-        <v>254.3532069212711</v>
+        <v>258.4044861466519</v>
       </c>
       <c r="O40" t="n">
-        <v>309.9034884042007</v>
+        <v>313.9547676295817</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9156685916367</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="Q40" t="n">
-        <v>333.9156685916367</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="R40" t="n">
-        <v>337.9669478170181</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="S40" t="n">
-        <v>320.6243903666896</v>
+        <v>320.6243903666892</v>
       </c>
       <c r="T40" t="n">
-        <v>296.3494743903861</v>
+        <v>296.3494743903858</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1611438377435</v>
+        <v>212.1611438377432</v>
       </c>
       <c r="V40" t="n">
-        <v>162.4871769130644</v>
+        <v>162.4871769130643</v>
       </c>
       <c r="W40" t="n">
-        <v>78.08052815731169</v>
+        <v>78.08052815731158</v>
       </c>
       <c r="X40" t="n">
-        <v>55.10149854050221</v>
+        <v>55.10149854050216</v>
       </c>
       <c r="Y40" t="n">
         <v>39.31944067817997</v>
@@ -7388,16 +7388,16 @@
         <v>1090.014198100787</v>
       </c>
       <c r="C41" t="n">
-        <v>926.0622024415828</v>
+        <v>926.0622024415832</v>
       </c>
       <c r="D41" t="n">
-        <v>772.8070251160401</v>
+        <v>772.8070251160406</v>
       </c>
       <c r="E41" t="n">
-        <v>592.0292937990037</v>
+        <v>592.0292937990042</v>
       </c>
       <c r="F41" t="n">
-        <v>386.0539102906039</v>
+        <v>386.0539102906045</v>
       </c>
       <c r="G41" t="n">
         <v>172.0689780472012</v>
@@ -7406,34 +7406,34 @@
         <v>39.31944067817997</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85721229328437</v>
+        <v>50.85721229328442</v>
       </c>
       <c r="J41" t="n">
-        <v>281.7387010832225</v>
+        <v>281.7387010832226</v>
       </c>
       <c r="K41" t="n">
-        <v>586.554471619952</v>
+        <v>447.3718060653167</v>
       </c>
       <c r="L41" t="n">
-        <v>844.313612173481</v>
+        <v>705.1309466188457</v>
       </c>
       <c r="M41" t="n">
-        <v>1147.726866381588</v>
+        <v>1008.544200826953</v>
       </c>
       <c r="N41" t="n">
-        <v>1441.417666705761</v>
+        <v>1495.12227921943</v>
       </c>
       <c r="O41" t="n">
-        <v>1673.553923530625</v>
+        <v>1762.255079319794</v>
       </c>
       <c r="P41" t="n">
-        <v>1834.002465160998</v>
+        <v>1922.703620950167</v>
       </c>
       <c r="Q41" t="n">
-        <v>1877.27087811983</v>
+        <v>1965.972033908999</v>
       </c>
       <c r="R41" t="n">
-        <v>1960.753576214749</v>
+        <v>1965.972033908999</v>
       </c>
       <c r="S41" t="n">
         <v>1965.972033908999</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.7068796205583</v>
+        <v>771.1801633470524</v>
       </c>
       <c r="C42" t="n">
-        <v>188.2538503394312</v>
+        <v>596.7271340659254</v>
       </c>
       <c r="D42" t="n">
-        <v>39.31944067817997</v>
+        <v>447.7927244046742</v>
       </c>
       <c r="E42" t="n">
-        <v>39.31944067817997</v>
+        <v>288.5552693992187</v>
       </c>
       <c r="F42" t="n">
-        <v>39.31944067817997</v>
+        <v>288.5552693992187</v>
       </c>
       <c r="G42" t="n">
-        <v>39.31944067817997</v>
+        <v>150.0931773817678</v>
       </c>
       <c r="H42" t="n">
         <v>39.31944067817997</v>
@@ -7488,16 +7488,16 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J42" t="n">
-        <v>63.46447896355325</v>
+        <v>63.46447896355335</v>
       </c>
       <c r="K42" t="n">
         <v>231.3530382731819</v>
       </c>
       <c r="L42" t="n">
-        <v>518.5043212868694</v>
+        <v>518.5043212868695</v>
       </c>
       <c r="M42" t="n">
-        <v>905.5755461531271</v>
+        <v>905.5755461531272</v>
       </c>
       <c r="N42" t="n">
         <v>1318.598407962676</v>
@@ -7512,28 +7512,28 @@
         <v>1965.972033908999</v>
       </c>
       <c r="R42" t="n">
-        <v>1965.972033908999</v>
+        <v>1881.487548363028</v>
       </c>
       <c r="S42" t="n">
-        <v>1865.232829460384</v>
+        <v>1713.061808851938</v>
       </c>
       <c r="T42" t="n">
-        <v>1664.129419005725</v>
+        <v>1713.061808851938</v>
       </c>
       <c r="U42" t="n">
-        <v>1435.923480571057</v>
+        <v>1484.85587041727</v>
       </c>
       <c r="V42" t="n">
-        <v>1200.771372339315</v>
+        <v>1454.714283466735</v>
       </c>
       <c r="W42" t="n">
-        <v>946.5340156111131</v>
+        <v>1355.007299337607</v>
       </c>
       <c r="X42" t="n">
-        <v>738.6825154055803</v>
+        <v>1147.155799132074</v>
       </c>
       <c r="Y42" t="n">
-        <v>530.9222166406263</v>
+        <v>939.3955003671203</v>
       </c>
     </row>
     <row r="43">
@@ -7558,58 +7558,58 @@
         <v>39.31944067817997</v>
       </c>
       <c r="G43" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="H43" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="I43" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="J43" t="n">
-        <v>39.31944067817997</v>
+        <v>43.37071990356133</v>
       </c>
       <c r="K43" t="n">
-        <v>42.92717438271369</v>
+        <v>46.97845360809505</v>
       </c>
       <c r="L43" t="n">
-        <v>103.0702660282379</v>
+        <v>107.1215452536193</v>
       </c>
       <c r="M43" t="n">
-        <v>176.8718465792579</v>
+        <v>180.9231258046393</v>
       </c>
       <c r="N43" t="n">
-        <v>254.3532069212711</v>
+        <v>258.4044861466524</v>
       </c>
       <c r="O43" t="n">
-        <v>309.9034884042007</v>
+        <v>313.9547676295821</v>
       </c>
       <c r="P43" t="n">
-        <v>333.9156685916367</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="Q43" t="n">
-        <v>337.9669478170185</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="R43" t="n">
-        <v>337.9669478170185</v>
+        <v>337.9669478170181</v>
       </c>
       <c r="S43" t="n">
-        <v>320.6243903666899</v>
+        <v>320.6243903666896</v>
       </c>
       <c r="T43" t="n">
-        <v>296.3494743903864</v>
+        <v>296.3494743903861</v>
       </c>
       <c r="U43" t="n">
-        <v>212.1611438377437</v>
+        <v>212.1611438377435</v>
       </c>
       <c r="V43" t="n">
-        <v>162.4871769130646</v>
+        <v>162.4871769130644</v>
       </c>
       <c r="W43" t="n">
-        <v>78.0805281573118</v>
+        <v>78.08052815731169</v>
       </c>
       <c r="X43" t="n">
-        <v>55.10149854050227</v>
+        <v>55.10149854050221</v>
       </c>
       <c r="Y43" t="n">
         <v>39.31944067817997</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1090.014198100787</v>
+        <v>1090.014198100788</v>
       </c>
       <c r="C44" t="n">
-        <v>926.0622024415828</v>
+        <v>926.0622024415844</v>
       </c>
       <c r="D44" t="n">
-        <v>772.8070251160401</v>
+        <v>772.8070251160418</v>
       </c>
       <c r="E44" t="n">
-        <v>592.0292937990037</v>
+        <v>592.0292937990055</v>
       </c>
       <c r="F44" t="n">
-        <v>386.0539102906039</v>
+        <v>386.0539102906058</v>
       </c>
       <c r="G44" t="n">
-        <v>172.0689780472012</v>
+        <v>172.0689780472011</v>
       </c>
       <c r="H44" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85721229328437</v>
+        <v>50.85721229328448</v>
       </c>
       <c r="J44" t="n">
-        <v>80.80788917551068</v>
+        <v>80.80788917551079</v>
       </c>
       <c r="K44" t="n">
-        <v>246.4409941576048</v>
+        <v>246.440994157605</v>
       </c>
       <c r="L44" t="n">
-        <v>504.2001347111338</v>
+        <v>705.1309466188459</v>
       </c>
       <c r="M44" t="n">
-        <v>807.6133889192413</v>
+        <v>1008.544200826953</v>
       </c>
       <c r="N44" t="n">
-        <v>1101.304189243414</v>
+        <v>1495.12227921943</v>
       </c>
       <c r="O44" t="n">
-        <v>1333.440446068278</v>
+        <v>1727.258536044294</v>
       </c>
       <c r="P44" t="n">
-        <v>1633.071653253286</v>
+        <v>1887.707077674667</v>
       </c>
       <c r="Q44" t="n">
-        <v>1877.27087811983</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="R44" t="n">
         <v>1960.753576214749</v>
       </c>
       <c r="S44" t="n">
-        <v>1965.972033908999</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="T44" t="n">
-        <v>1947.83186032397</v>
+        <v>1947.831860323971</v>
       </c>
       <c r="U44" t="n">
-        <v>1898.998064609446</v>
+        <v>1898.998064609447</v>
       </c>
       <c r="V44" t="n">
-        <v>1772.945698547083</v>
+        <v>1772.945698547084</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.187564558177</v>
+        <v>1625.187564558178</v>
       </c>
       <c r="X44" t="n">
-        <v>1456.732327578304</v>
+        <v>1456.732327578306</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.603516883701</v>
+        <v>1271.603516883702</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.7068796205583</v>
+        <v>463.4460840691723</v>
       </c>
       <c r="C45" t="n">
-        <v>188.2538503394312</v>
+        <v>288.9930547880452</v>
       </c>
       <c r="D45" t="n">
-        <v>39.31944067817997</v>
+        <v>258.8287180249695</v>
       </c>
       <c r="E45" t="n">
-        <v>39.31944067817997</v>
+        <v>258.8287180249695</v>
       </c>
       <c r="F45" t="n">
-        <v>39.31944067817997</v>
+        <v>258.8287180249695</v>
       </c>
       <c r="G45" t="n">
-        <v>39.31944067817997</v>
+        <v>120.3666260075186</v>
       </c>
       <c r="H45" t="n">
-        <v>39.31944067817997</v>
+        <v>120.3666260075186</v>
       </c>
       <c r="I45" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="J45" t="n">
-        <v>63.46447896355323</v>
+        <v>63.4644789635532</v>
       </c>
       <c r="K45" t="n">
         <v>231.3530382731819</v>
@@ -7734,7 +7734,7 @@
         <v>518.5043212868695</v>
       </c>
       <c r="M45" t="n">
-        <v>905.5755461531272</v>
+        <v>905.5755461531271</v>
       </c>
       <c r="N45" t="n">
         <v>1318.598407962676</v>
@@ -7743,34 +7743,34 @@
         <v>1630.017957701687</v>
       </c>
       <c r="P45" t="n">
-        <v>1862.956533922325</v>
+        <v>1862.956533922324</v>
       </c>
       <c r="Q45" t="n">
-        <v>1965.972033908999</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.487548363028</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S45" t="n">
-        <v>1865.232829460384</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="T45" t="n">
-        <v>1664.129419005725</v>
+        <v>1764.868623454339</v>
       </c>
       <c r="U45" t="n">
-        <v>1435.923480571057</v>
+        <v>1536.662685019671</v>
       </c>
       <c r="V45" t="n">
-        <v>1200.771372339315</v>
+        <v>1301.510576787929</v>
       </c>
       <c r="W45" t="n">
-        <v>946.5340156111131</v>
+        <v>1047.273220059727</v>
       </c>
       <c r="X45" t="n">
-        <v>738.6825154055803</v>
+        <v>839.4217198541942</v>
       </c>
       <c r="Y45" t="n">
-        <v>530.9222166406263</v>
+        <v>631.6614210892403</v>
       </c>
     </row>
     <row r="46">
@@ -7789,64 +7789,64 @@
         <v>39.31944067817997</v>
       </c>
       <c r="E46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="F46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J46" t="n">
-        <v>43.37071990356164</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97845360809536</v>
+        <v>42.92717438271369</v>
       </c>
       <c r="L46" t="n">
-        <v>107.1215452536196</v>
+        <v>107.1215452536188</v>
       </c>
       <c r="M46" t="n">
-        <v>180.9231258046396</v>
+        <v>180.9231258046388</v>
       </c>
       <c r="N46" t="n">
-        <v>258.4044861466527</v>
+        <v>258.4044861466519</v>
       </c>
       <c r="O46" t="n">
-        <v>313.9547676295825</v>
+        <v>313.9547676295817</v>
       </c>
       <c r="P46" t="n">
-        <v>337.9669478170185</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="Q46" t="n">
-        <v>337.9669478170185</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="R46" t="n">
-        <v>337.9669478170185</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="S46" t="n">
-        <v>320.6243903666899</v>
+        <v>320.6243903666892</v>
       </c>
       <c r="T46" t="n">
-        <v>296.3494743903864</v>
+        <v>296.3494743903858</v>
       </c>
       <c r="U46" t="n">
-        <v>212.1611438377437</v>
+        <v>212.1611438377432</v>
       </c>
       <c r="V46" t="n">
-        <v>162.4871769130646</v>
+        <v>162.4871769130643</v>
       </c>
       <c r="W46" t="n">
-        <v>78.0805281573118</v>
+        <v>78.08052815731156</v>
       </c>
       <c r="X46" t="n">
-        <v>55.10149854050227</v>
+        <v>55.10149854050215</v>
       </c>
       <c r="Y46" t="n">
         <v>39.31944067817997</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8535,10 +8535,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>146.6444495984684</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.7021077794257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>104.8157416806365</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>453.8822398489554</v>
       </c>
       <c r="N12" t="n">
-        <v>70.75371684939945</v>
+        <v>441.3057757523161</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>83.17127750797971</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.7021077794257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>129.2046692416196</v>
+        <v>104.8157416806365</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>94.88083366951938</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>80.78854427953232</v>
       </c>
       <c r="M18" t="n">
-        <v>453.8822398489554</v>
+        <v>348.9930544089823</v>
       </c>
       <c r="N18" t="n">
-        <v>441.3057757523162</v>
+        <v>441.3057757523161</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>197.1622461116968</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.0212271432491</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.7021077794257</v>
       </c>
       <c r="K21" t="n">
-        <v>94.88083366951935</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>145.4837621826185</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>453.8822398489554</v>
       </c>
       <c r="N21" t="n">
-        <v>441.3057757523161</v>
+        <v>70.75371684939947</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.7021077794257</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.88083366951938</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>453.8822398489553</v>
+        <v>252.9145842890977</v>
       </c>
       <c r="N24" t="n">
         <v>441.3057757523161</v>
       </c>
       <c r="O24" t="n">
-        <v>79.29711752015308</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>238.0869839326139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125789</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>479.3423743435538</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358492</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.4065958057407</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.6031242145219</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.5487998839716</v>
+        <v>262.266341064535</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H11" t="n">
-        <v>111.7789686674947</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.36200082252515</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.978627968035</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.425012612395</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.9137228596731</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.4038548207292</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.9106927983137</v>
+        <v>254.9106927983138</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.9456459132678</v>
+        <v>78.4559252668839</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.3557957629431</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.5487998839716</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>121.7133437090246</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.97885544792419</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.3620008225252</v>
       </c>
       <c r="T14" t="n">
-        <v>89.59194205983407</v>
+        <v>89.59194205983405</v>
       </c>
       <c r="U14" t="n">
-        <v>119.9786279680351</v>
+        <v>119.978627968035</v>
       </c>
       <c r="V14" t="n">
         <v>196.4250126123951</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1386784.041318485</v>
+        <v>1386784.041318484</v>
       </c>
     </row>
     <row r="8">
@@ -26323,28 +26323,28 @@
         <v>122877.5628951602</v>
       </c>
       <c r="F2" t="n">
-        <v>122877.5628951602</v>
+        <v>122877.5628951603</v>
       </c>
       <c r="G2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="H2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262493</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262493</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26372,13 +26372,13 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>313072.4135187425</v>
+        <v>313072.4135187424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85172.54343310985</v>
+        <v>85172.54343310981</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88339.84283304242</v>
+        <v>88339.84283304238</v>
       </c>
       <c r="M3" t="n">
-        <v>83808.16974957834</v>
+        <v>83808.16974957837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>35048.04505406551</v>
+        <v>35048.04505406543</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26430,13 +26430,13 @@
         <v>259604.3742888315</v>
       </c>
       <c r="G4" t="n">
-        <v>327221.8566612478</v>
+        <v>327221.8566612479</v>
       </c>
       <c r="H4" t="n">
         <v>327221.8566612478</v>
       </c>
       <c r="I4" t="n">
-        <v>327221.8566612479</v>
+        <v>327221.8566612478</v>
       </c>
       <c r="J4" t="n">
         <v>323295.2197743148</v>
@@ -26448,10 +26448,10 @@
         <v>323218.2430703347</v>
       </c>
       <c r="M4" t="n">
+        <v>322342.8513983453</v>
+      </c>
+      <c r="N4" t="n">
         <v>322342.8513983454</v>
-      </c>
-      <c r="N4" t="n">
-        <v>322342.8513983453</v>
       </c>
       <c r="O4" t="n">
         <v>322342.8513983453</v>
@@ -26476,7 +26476,7 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>36789.76969573053</v>
+        <v>36789.76969573052</v>
       </c>
       <c r="F5" t="n">
         <v>36789.76969573052</v>
@@ -26494,10 +26494,10 @@
         <v>57328.5993571975</v>
       </c>
       <c r="K5" t="n">
-        <v>57328.59935719751</v>
+        <v>57328.5993571975</v>
       </c>
       <c r="L5" t="n">
-        <v>56731.03253284346</v>
+        <v>56731.03253284345</v>
       </c>
       <c r="M5" t="n">
         <v>49641.85434948916</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294275.8987843326</v>
+        <v>-294280.3123622007</v>
       </c>
       <c r="C6" t="n">
-        <v>-294275.8987843325</v>
+        <v>-294280.3123622007</v>
       </c>
       <c r="D6" t="n">
         <v>-298155.7333817776</v>
       </c>
       <c r="E6" t="n">
-        <v>-486588.9946081443</v>
+        <v>-486886.2052771598</v>
       </c>
       <c r="F6" t="n">
-        <v>-173516.5810894017</v>
+        <v>-173813.7917584174</v>
       </c>
       <c r="G6" t="n">
-        <v>-314452.323256186</v>
+        <v>-314452.3232561862</v>
       </c>
       <c r="H6" t="n">
-        <v>-229279.7798230762</v>
+        <v>-229279.7798230763</v>
       </c>
       <c r="I6" t="n">
         <v>-229279.7798230763</v>
       </c>
       <c r="J6" t="n">
-        <v>-353520.2737979849</v>
+        <v>-353520.2737979848</v>
       </c>
       <c r="K6" t="n">
-        <v>-236941.509405263</v>
+        <v>-236941.5094052629</v>
       </c>
       <c r="L6" t="n">
-        <v>-324606.808709971</v>
+        <v>-324606.8087099709</v>
       </c>
       <c r="M6" t="n">
         <v>-312110.5657711633</v>
       </c>
       <c r="N6" t="n">
-        <v>-228302.3960215849</v>
+        <v>-228302.396021585</v>
       </c>
       <c r="O6" t="n">
         <v>-263350.4410756504</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F2" t="n">
         <v>131.3272458577398</v>
@@ -26710,10 +26710,10 @@
         <v>150.2757356089691</v>
       </c>
       <c r="K2" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="L2" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M2" t="n">
         <v>202.9604160683958</v>
@@ -26722,10 +26722,10 @@
         <v>202.9604160683958</v>
       </c>
       <c r="O2" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="P2" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="3">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.81005631758194</v>
+        <v>43.81005631758185</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>110.424803541303</v>
       </c>
       <c r="M2" t="n">
-        <v>48.72555620951093</v>
+        <v>48.72555620951096</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758188</v>
+        <v>43.8100563175818</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758194</v>
+        <v>43.81005631758185</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.2067101930348</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,10 +27910,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>339.284915095271</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.8011237727943</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
         <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>134.7130056875657</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2337688902343</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>6.966754310747802</v>
@@ -28059,10 +28059,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.1883789600571</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="C11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="D11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="E11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="H11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="I11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.6344583967597</v>
       </c>
       <c r="S11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="W11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="D12" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>23.45959347168733</v>
       </c>
       <c r="F12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.665999336552</v>
@@ -28220,22 +28220,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X12" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.45959347168716</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="C13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="D13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="E13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="H13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="I13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="J13" t="n">
-        <v>77.58996333455181</v>
+        <v>127.5090622712987</v>
       </c>
       <c r="K13" t="n">
-        <v>49.91909893674593</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="N13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="O13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="R13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="S13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="T13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="W13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="14">
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.3272458577398</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,10 +28415,10 @@
         <v>131.3272458577398</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G15" t="n">
-        <v>131.3272458577398</v>
+        <v>23.45959347168791</v>
       </c>
       <c r="H15" t="n">
         <v>109.665999336552</v>
@@ -28457,13 +28457,13 @@
         <v>131.3272458577398</v>
       </c>
       <c r="T15" t="n">
-        <v>23.45959347168775</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>131.3272458577398</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>131.3272458577398</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.3272458577398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28515,10 +28515,10 @@
         <v>131.3272458577398</v>
       </c>
       <c r="M16" t="n">
-        <v>49.91909893674742</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="N16" t="n">
-        <v>131.3272458577398</v>
+        <v>113.7612021188649</v>
       </c>
       <c r="O16" t="n">
         <v>131.3272458577398</v>
@@ -28527,7 +28527,7 @@
         <v>131.3272458577398</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3272458577398</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R16" t="n">
         <v>131.3272458577398</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28655,13 +28655,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.23671347604524</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T18" t="n">
         <v>199.0923763501127</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>22.11655479995107</v>
+        <v>97.62974494135142</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28731,7 +28731,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.767935273846</v>
@@ -28740,7 +28740,7 @@
         <v>160.2441078278826</v>
       </c>
       <c r="I19" t="n">
-        <v>148.7429310009042</v>
+        <v>114.1024429180629</v>
       </c>
       <c r="J19" t="n">
         <v>77.58996333455181</v>
@@ -28770,7 +28770,7 @@
         <v>167.2645182635819</v>
       </c>
       <c r="S19" t="n">
-        <v>40.06801183844857</v>
+        <v>220.1295479442211</v>
       </c>
       <c r="T19" t="n">
         <v>226.9925828849361</v>
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>73.70470468796415</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.23671347604524</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0923763501127</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9238790503212</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>237.7929251491271</v>
+        <v>188.5594490236452</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28968,13 +28968,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>32.84465459278067</v>
       </c>
       <c r="G22" t="n">
         <v>167.767935273846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>160.2441078278826</v>
       </c>
       <c r="I22" t="n">
         <v>148.7429310009042</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.66771439773198</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>167.2645182635819</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12.89690135561275</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>120.7310344010018</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R25" t="n">
-        <v>54.68812483343133</v>
+        <v>167.2645182635819</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1295479442211</v>
+        <v>207.3148329370765</v>
       </c>
       <c r="T25" t="n">
         <v>226.9925828849361</v>
@@ -29320,7 +29320,7 @@
         <v>150.2757356089691</v>
       </c>
       <c r="R26" t="n">
-        <v>150.2757356089691</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="S26" t="n">
         <v>150.2757356089691</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>74.78136860417754</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I27" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,25 +29399,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>150.2757356089691</v>
       </c>
-      <c r="T27" t="n">
-        <v>69.17249134269792</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>150.2757356089691</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29451,16 +29451,16 @@
         <v>150.2757356089691</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7429310009042</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="J28" t="n">
+        <v>98.42678309042162</v>
+      </c>
+      <c r="K28" t="n">
         <v>150.2757356089691</v>
       </c>
-      <c r="K28" t="n">
-        <v>17.16899476513891</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29472,10 +29472,10 @@
         <v>150.2757356089691</v>
       </c>
       <c r="P28" t="n">
-        <v>150.2757356089691</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.2757356089691</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R28" t="n">
         <v>150.2757356089691</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="C29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="D29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="E29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="F29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="G29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="H29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="I29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="J29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="K29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="L29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="M29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="N29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="O29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="P29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="R29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="S29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="T29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="U29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="V29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="W29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="X29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>109.665999336552</v>
       </c>
       <c r="I30" t="n">
-        <v>4.339992425359398</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,13 +29639,13 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S30" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>4.339992425359441</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>150.2757356089691</v>
       </c>
     </row>
     <row r="31">
@@ -29667,25 +29667,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="C31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="D31" t="n">
-        <v>150.2757356089692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="F31" t="n">
-        <v>150.2757356089692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="H31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="I31" t="n">
         <v>148.7429310009042</v>
@@ -29694,10 +29694,10 @@
         <v>77.58996333455181</v>
       </c>
       <c r="K31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="L31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29709,34 +29709,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>79.49804390036076</v>
+        <v>86.01299407715658</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="R31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="S31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="T31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="U31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="V31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="W31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089691</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="C32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="D32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="E32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="F32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="G32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="H32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="I32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="J32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="K32" t="n">
-        <v>154.2348598588849</v>
+        <v>58.01008397395805</v>
       </c>
       <c r="L32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="N32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="O32" t="n">
-        <v>58.01008397395725</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="P32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="R32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="S32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="T32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="U32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="V32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="W32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="X32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
     </row>
     <row r="33">
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H33" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.25424284286643</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="U33" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>35.49252409370644</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="C34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29919,28 +29919,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="H34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7429310009042</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="J34" t="n">
-        <v>77.58996333455181</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M34" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>116.2529853645226</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.48514267562183</v>
+        <v>101.6013026578321</v>
       </c>
       <c r="R34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="S34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="T34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="U34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="V34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="W34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="X34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Y34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
     </row>
     <row r="35">
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>39.89953481331796</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>185.0149739236058</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>140.588551065288</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>202.9604160683958</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S35" t="n">
         <v>202.9604160683958</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>110.8992739477854</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>109.2020145076506</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H36" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T36" t="n">
         <v>199.0923763501127</v>
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.767935273846</v>
+        <v>171.860136511605</v>
       </c>
       <c r="H37" t="n">
         <v>160.2441078278826</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.48514267562183</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R37" t="n">
-        <v>171.3567195013405</v>
+        <v>167.2645182635819</v>
       </c>
       <c r="S37" t="n">
         <v>202.9604160683958</v>
@@ -30244,7 +30244,7 @@
         <v>202.9604160683958</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>140.5885510652879</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>202.9604160683958</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>140.588551065288</v>
       </c>
       <c r="R38" t="n">
         <v>202.9604160683958</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>173.5267678920658</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>63.30239417475929</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>77.58996333455181</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.092201237758485</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.48514267562183</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R40" t="n">
-        <v>171.3567195013409</v>
+        <v>167.2645182635819</v>
       </c>
       <c r="S40" t="n">
         <v>202.9604160683958</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="C41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="E41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="F41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="G41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="H41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="I41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="J41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="K41" t="n">
-        <v>140.5885510652882</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,10 +30493,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>194.8356344124287</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>35.35004371262622</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>202.9604160683957</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S41" t="n">
-        <v>202.9604160683957</v>
+        <v>197.689246680265</v>
       </c>
       <c r="T41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="42">
@@ -30545,16 +30545,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.23671347604525</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>67.00966971185107</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>152.9850688730832</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.767935273846</v>
+        <v>171.860136511605</v>
       </c>
       <c r="H43" t="n">
         <v>160.2441078278826</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.57734391338116</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R43" t="n">
         <v>167.2645182635819</v>
       </c>
       <c r="S43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="C44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="E44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="F44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="G44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="H44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="I44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,46 +30724,46 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>194.8356344124286</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>140.5885510652884</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.9604160683957</v>
+        <v>30.07887432449512</v>
       </c>
       <c r="R44" t="n">
-        <v>202.9604160683957</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="45">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>117.5823721691937</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -30788,13 +30788,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I45" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S45" t="n">
-        <v>150.6493104023623</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>150.5261638843284</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.092201237758495</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.48514267562183</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R46" t="n">
         <v>167.2645182635819</v>
       </c>
       <c r="S46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.9604160683957</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
   </sheetData>
@@ -31774,10 +31774,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O11" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P11" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q11" t="n">
         <v>53.69616684972822</v>
@@ -31792,7 +31792,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H12" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I12" t="n">
         <v>9.159919375369832</v>
@@ -31844,22 +31844,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L12" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M12" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N12" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O12" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P12" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R12" t="n">
         <v>16.51819346213189</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H13" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I13" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J13" t="n">
         <v>15.76921678212096</v>
@@ -31938,16 +31938,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R13" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S13" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U13" t="n">
         <v>0.01216604097887693</v>
@@ -32011,10 +32011,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O14" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P14" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q14" t="n">
         <v>53.69616684972822</v>
@@ -32029,7 +32029,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H15" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I15" t="n">
         <v>9.159919375369832</v>
@@ -32081,22 +32081,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L15" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M15" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N15" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O15" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P15" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R15" t="n">
         <v>16.51819346213189</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H16" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I16" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J16" t="n">
         <v>15.76921678212096</v>
@@ -32175,16 +32175,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R16" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S16" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U16" t="n">
         <v>0.01216604097887693</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4972385257698435</v>
+        <v>0.4972385257698437</v>
       </c>
       <c r="H17" t="n">
-        <v>5.092344052040411</v>
+        <v>5.092344052040413</v>
       </c>
       <c r="I17" t="n">
-        <v>19.16978826474191</v>
+        <v>19.16978826474192</v>
       </c>
       <c r="J17" t="n">
-        <v>42.20249832655829</v>
+        <v>42.20249832655831</v>
       </c>
       <c r="K17" t="n">
-        <v>63.25060512239578</v>
+        <v>63.2506051223958</v>
       </c>
       <c r="L17" t="n">
-        <v>78.46796865542464</v>
+        <v>78.46796865542467</v>
       </c>
       <c r="M17" t="n">
-        <v>87.31073428808409</v>
+        <v>87.31073428808412</v>
       </c>
       <c r="N17" t="n">
-        <v>88.72351324942767</v>
+        <v>88.7235132494277</v>
       </c>
       <c r="O17" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880382</v>
       </c>
       <c r="P17" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386079</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.69616684972822</v>
+        <v>53.69616684972824</v>
       </c>
       <c r="R17" t="n">
-        <v>31.23465954438996</v>
+        <v>31.23465954438997</v>
       </c>
       <c r="S17" t="n">
         <v>11.33082290598032</v>
       </c>
       <c r="T17" t="n">
-        <v>2.176661646557491</v>
+        <v>2.176661646557492</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158749</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343086</v>
       </c>
       <c r="H18" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944507</v>
       </c>
       <c r="I18" t="n">
-        <v>9.159919375369832</v>
+        <v>9.159919375369835</v>
       </c>
       <c r="J18" t="n">
-        <v>25.13551888724096</v>
+        <v>25.13551888724097</v>
       </c>
       <c r="K18" t="n">
-        <v>42.96060530483962</v>
+        <v>42.96060530483964</v>
       </c>
       <c r="L18" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034186</v>
       </c>
       <c r="M18" t="n">
-        <v>67.41000539046051</v>
+        <v>67.41000539046054</v>
       </c>
       <c r="N18" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841476</v>
       </c>
       <c r="O18" t="n">
-        <v>63.29912692429136</v>
+        <v>63.29912692429139</v>
       </c>
       <c r="P18" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635056</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277244</v>
       </c>
       <c r="R18" t="n">
-        <v>16.51819346213189</v>
+        <v>16.5181934621319</v>
       </c>
       <c r="S18" t="n">
-        <v>4.941688987858752</v>
+        <v>4.941688987858754</v>
       </c>
       <c r="T18" t="n">
         <v>1.072352344708901</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01750303065357293</v>
+        <v>0.01750303065357294</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127436</v>
       </c>
       <c r="H19" t="n">
-        <v>1.983064679556939</v>
+        <v>1.98306467955694</v>
       </c>
       <c r="I19" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354145</v>
       </c>
       <c r="J19" t="n">
-        <v>15.76921678212096</v>
+        <v>15.76921678212097</v>
       </c>
       <c r="K19" t="n">
-        <v>25.91366728500783</v>
+        <v>25.91366728500784</v>
       </c>
       <c r="L19" t="n">
-        <v>33.16057236142552</v>
+        <v>33.16057236142553</v>
       </c>
       <c r="M19" t="n">
-        <v>34.96317409979577</v>
+        <v>34.96317409979579</v>
       </c>
       <c r="N19" t="n">
-        <v>34.13182796623921</v>
+        <v>34.13182796623923</v>
       </c>
       <c r="O19" t="n">
-        <v>31.52626752326306</v>
+        <v>31.52626752326307</v>
       </c>
       <c r="P19" t="n">
-        <v>26.97616819716307</v>
+        <v>26.97616819716308</v>
       </c>
       <c r="Q19" t="n">
         <v>18.67690057607255</v>
@@ -32418,13 +32418,13 @@
         <v>10.02887311358754</v>
       </c>
       <c r="S19" t="n">
-        <v>3.887050092751173</v>
+        <v>3.887050092751175</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453585</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01216604097887693</v>
+        <v>0.01216604097887694</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4972385257698437</v>
+        <v>0.4972385257698435</v>
       </c>
       <c r="H20" t="n">
-        <v>5.092344052040413</v>
+        <v>5.092344052040411</v>
       </c>
       <c r="I20" t="n">
-        <v>19.16978826474192</v>
+        <v>19.16978826474191</v>
       </c>
       <c r="J20" t="n">
-        <v>42.20249832655831</v>
+        <v>42.20249832655829</v>
       </c>
       <c r="K20" t="n">
-        <v>63.2506051223958</v>
+        <v>63.25060512239578</v>
       </c>
       <c r="L20" t="n">
-        <v>78.46796865542467</v>
+        <v>78.46796865542464</v>
       </c>
       <c r="M20" t="n">
-        <v>87.31073428808412</v>
+        <v>87.31073428808409</v>
       </c>
       <c r="N20" t="n">
-        <v>88.7235132494277</v>
+        <v>88.72351324942767</v>
       </c>
       <c r="O20" t="n">
-        <v>83.77909765880382</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P20" t="n">
-        <v>71.50352155386079</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.69616684972824</v>
+        <v>53.69616684972822</v>
       </c>
       <c r="R20" t="n">
-        <v>31.23465954438997</v>
+        <v>31.23465954438996</v>
       </c>
       <c r="S20" t="n">
         <v>11.33082290598032</v>
       </c>
       <c r="T20" t="n">
-        <v>2.176661646557492</v>
+        <v>2.176661646557491</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03977908206158749</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2660460659343086</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H21" t="n">
-        <v>2.569444899944507</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I21" t="n">
-        <v>9.159919375369835</v>
+        <v>9.159919375369832</v>
       </c>
       <c r="J21" t="n">
-        <v>25.13551888724097</v>
+        <v>25.13551888724096</v>
       </c>
       <c r="K21" t="n">
-        <v>42.96060530483964</v>
+        <v>42.96060530483962</v>
       </c>
       <c r="L21" t="n">
-        <v>57.76583550034186</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M21" t="n">
-        <v>67.41000539046054</v>
+        <v>67.41000539046051</v>
       </c>
       <c r="N21" t="n">
-        <v>69.19414764841476</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O21" t="n">
-        <v>63.29912692429139</v>
+        <v>63.29912692429136</v>
       </c>
       <c r="P21" t="n">
-        <v>50.80312990635056</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.96054694277244</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R21" t="n">
-        <v>16.5181934621319</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S21" t="n">
-        <v>4.941688987858754</v>
+        <v>4.941688987858752</v>
       </c>
       <c r="T21" t="n">
         <v>1.072352344708901</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01750303065357294</v>
+        <v>0.01750303065357293</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2230440846127436</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H22" t="n">
-        <v>1.98306467955694</v>
+        <v>1.983064679556939</v>
       </c>
       <c r="I22" t="n">
-        <v>6.707543926354145</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J22" t="n">
-        <v>15.76921678212097</v>
+        <v>15.76921678212096</v>
       </c>
       <c r="K22" t="n">
-        <v>25.91366728500784</v>
+        <v>25.91366728500783</v>
       </c>
       <c r="L22" t="n">
-        <v>33.16057236142553</v>
+        <v>33.16057236142552</v>
       </c>
       <c r="M22" t="n">
-        <v>34.96317409979579</v>
+        <v>34.96317409979577</v>
       </c>
       <c r="N22" t="n">
-        <v>34.13182796623923</v>
+        <v>34.13182796623921</v>
       </c>
       <c r="O22" t="n">
-        <v>31.52626752326307</v>
+        <v>31.52626752326306</v>
       </c>
       <c r="P22" t="n">
-        <v>26.97616819716308</v>
+        <v>26.97616819716307</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R22" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S22" t="n">
-        <v>3.887050092751175</v>
+        <v>3.887050092751173</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9530065433453585</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01216604097887694</v>
+        <v>0.01216604097887693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32722,10 +32722,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O23" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P23" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q23" t="n">
         <v>53.69616684972822</v>
@@ -32740,7 +32740,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H24" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I24" t="n">
         <v>9.159919375369832</v>
@@ -32792,22 +32792,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L24" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M24" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N24" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O24" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P24" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R24" t="n">
         <v>16.51819346213189</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H25" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I25" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J25" t="n">
         <v>15.76921678212096</v>
@@ -32886,16 +32886,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R25" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S25" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U25" t="n">
         <v>0.01216604097887693</v>
@@ -32959,10 +32959,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O26" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P26" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q26" t="n">
         <v>53.69616684972822</v>
@@ -32977,7 +32977,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H27" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I27" t="n">
         <v>9.159919375369832</v>
@@ -33029,22 +33029,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L27" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M27" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N27" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O27" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P27" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R27" t="n">
         <v>16.51819346213189</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H28" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I28" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J28" t="n">
         <v>15.76921678212096</v>
@@ -33123,16 +33123,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R28" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S28" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U28" t="n">
         <v>0.01216604097887693</v>
@@ -33196,10 +33196,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O29" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P29" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q29" t="n">
         <v>53.69616684972822</v>
@@ -33214,7 +33214,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H30" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I30" t="n">
         <v>9.159919375369832</v>
@@ -33266,22 +33266,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L30" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M30" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N30" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O30" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P30" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R30" t="n">
         <v>16.51819346213189</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H31" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I31" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J31" t="n">
         <v>15.76921678212096</v>
@@ -33360,16 +33360,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R31" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S31" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U31" t="n">
         <v>0.01216604097887693</v>
@@ -33433,10 +33433,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O32" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P32" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q32" t="n">
         <v>53.69616684972822</v>
@@ -33451,7 +33451,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H33" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I33" t="n">
         <v>9.159919375369832</v>
@@ -33503,22 +33503,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L33" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M33" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N33" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O33" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P33" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R33" t="n">
         <v>16.51819346213189</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H34" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I34" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J34" t="n">
         <v>15.76921678212096</v>
@@ -33597,16 +33597,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R34" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S34" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U34" t="n">
         <v>0.01216604097887693</v>
@@ -33670,10 +33670,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O35" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P35" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q35" t="n">
         <v>53.69616684972822</v>
@@ -33688,7 +33688,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H36" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I36" t="n">
         <v>9.159919375369832</v>
@@ -33740,22 +33740,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L36" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M36" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N36" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O36" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P36" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R36" t="n">
         <v>16.51819346213189</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H37" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I37" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J37" t="n">
         <v>15.76921678212096</v>
@@ -33834,16 +33834,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R37" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S37" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U37" t="n">
         <v>0.01216604097887693</v>
@@ -33907,10 +33907,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O38" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P38" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q38" t="n">
         <v>53.69616684972822</v>
@@ -33925,7 +33925,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H39" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I39" t="n">
         <v>9.159919375369832</v>
@@ -33977,22 +33977,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L39" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M39" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N39" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O39" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P39" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R39" t="n">
         <v>16.51819346213189</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H40" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I40" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J40" t="n">
         <v>15.76921678212096</v>
@@ -34071,16 +34071,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R40" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S40" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U40" t="n">
         <v>0.01216604097887693</v>
@@ -34144,10 +34144,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O41" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P41" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q41" t="n">
         <v>53.69616684972822</v>
@@ -34162,7 +34162,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H42" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I42" t="n">
         <v>9.159919375369832</v>
@@ -34214,22 +34214,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L42" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M42" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N42" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O42" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P42" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R42" t="n">
         <v>16.51819346213189</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H43" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I43" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J43" t="n">
         <v>15.76921678212096</v>
@@ -34308,16 +34308,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R43" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S43" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U43" t="n">
         <v>0.01216604097887693</v>
@@ -34381,10 +34381,10 @@
         <v>88.72351324942767</v>
       </c>
       <c r="O44" t="n">
-        <v>83.77909765880379</v>
+        <v>83.77909765880378</v>
       </c>
       <c r="P44" t="n">
-        <v>71.50352155386076</v>
+        <v>71.50352155386075</v>
       </c>
       <c r="Q44" t="n">
         <v>53.69616684972822</v>
@@ -34399,7 +34399,7 @@
         <v>2.176661646557491</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03977908206158747</v>
+        <v>0.03977908206158746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2660460659343085</v>
+        <v>0.2660460659343084</v>
       </c>
       <c r="H45" t="n">
-        <v>2.569444899944506</v>
+        <v>2.569444899944505</v>
       </c>
       <c r="I45" t="n">
         <v>9.159919375369832</v>
@@ -34451,22 +34451,22 @@
         <v>42.96060530483962</v>
       </c>
       <c r="L45" t="n">
-        <v>57.76583550034185</v>
+        <v>57.76583550034184</v>
       </c>
       <c r="M45" t="n">
         <v>67.41000539046051</v>
       </c>
       <c r="N45" t="n">
-        <v>69.19414764841473</v>
+        <v>69.19414764841471</v>
       </c>
       <c r="O45" t="n">
         <v>63.29912692429136</v>
       </c>
       <c r="P45" t="n">
-        <v>50.80312990635054</v>
+        <v>50.80312990635053</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.96054694277243</v>
+        <v>33.96054694277242</v>
       </c>
       <c r="R45" t="n">
         <v>16.51819346213189</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2230440846127435</v>
+        <v>0.2230440846127434</v>
       </c>
       <c r="H46" t="n">
         <v>1.983064679556939</v>
       </c>
       <c r="I46" t="n">
-        <v>6.707543926354142</v>
+        <v>6.707543926354141</v>
       </c>
       <c r="J46" t="n">
         <v>15.76921678212096</v>
@@ -34545,16 +34545,16 @@
         <v>26.97616819716307</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.67690057607255</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R46" t="n">
-        <v>10.02887311358754</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S46" t="n">
         <v>3.887050092751173</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9530065433453583</v>
+        <v>0.9530065433453582</v>
       </c>
       <c r="U46" t="n">
         <v>0.01216604097887693</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>15.30273751513505</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K12" t="n">
-        <v>169.5844033430592</v>
+        <v>9.93490801111712</v>
       </c>
       <c r="L12" t="n">
         <v>290.0518010239268</v>
@@ -35498,13 +35498,13 @@
         <v>379.1582113173976</v>
       </c>
       <c r="N12" t="n">
-        <v>8.606152414480873</v>
+        <v>379.1582113173976</v>
       </c>
       <c r="O12" t="n">
         <v>314.5652017565765</v>
       </c>
       <c r="P12" t="n">
-        <v>235.2914911319575</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>104.0560605926</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.9190989367469</v>
       </c>
       <c r="K13" t="n">
-        <v>53.5632743958709</v>
+        <v>3.644175459124973</v>
       </c>
       <c r="L13" t="n">
         <v>192.0778434794815</v>
@@ -35577,16 +35577,16 @@
         <v>205.8742969193762</v>
       </c>
       <c r="N13" t="n">
-        <v>209.5912462032077</v>
+        <v>209.5912462032076</v>
       </c>
       <c r="O13" t="n">
-        <v>187.4386412950426</v>
+        <v>187.4386412950425</v>
       </c>
       <c r="P13" t="n">
         <v>155.5819733197964</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.84210318211804</v>
+        <v>63.84210318211798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>234.4810674998624</v>
       </c>
       <c r="P14" t="n">
-        <v>162.0692339700739</v>
+        <v>162.0692339700745</v>
       </c>
       <c r="Q14" t="n">
         <v>43.70546763518342</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K15" t="n">
-        <v>34.32383557210023</v>
+        <v>9.93490801111712</v>
       </c>
       <c r="L15" t="n">
         <v>290.0518010239268</v>
@@ -35811,10 +35811,10 @@
         <v>192.0778434794815</v>
       </c>
       <c r="M16" t="n">
-        <v>124.4661499983838</v>
+        <v>205.8742969193762</v>
       </c>
       <c r="N16" t="n">
-        <v>209.5912462032076</v>
+        <v>192.0252024643327</v>
       </c>
       <c r="O16" t="n">
         <v>187.4386412950425</v>
@@ -35823,7 +35823,7 @@
         <v>155.5819733197964</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.84210318211796</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.25320897194577</v>
+        <v>30.25320897194579</v>
       </c>
       <c r="K17" t="n">
         <v>167.30616664858</v>
@@ -35902,7 +35902,7 @@
         <v>162.0692339700739</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.70546763518342</v>
+        <v>43.70546763518344</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>24.38892756098311</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>169.5844033430593</v>
       </c>
       <c r="L18" t="n">
-        <v>290.0518010239268</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>379.1582113173976</v>
+        <v>274.2690258774245</v>
       </c>
       <c r="N18" t="n">
         <v>379.1582113173976</v>
@@ -35978,10 +35978,10 @@
         <v>314.5652017565765</v>
       </c>
       <c r="P18" t="n">
-        <v>113.9909686037171</v>
+        <v>235.2914911319575</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.644175459124973</v>
+        <v>3.644175459124984</v>
       </c>
       <c r="L19" t="n">
-        <v>60.75059762174166</v>
+        <v>60.75059762174167</v>
       </c>
       <c r="M19" t="n">
-        <v>74.54705106163635</v>
+        <v>74.54705106163638</v>
       </c>
       <c r="N19" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546782</v>
       </c>
       <c r="O19" t="n">
-        <v>56.11139543730273</v>
+        <v>56.11139543730275</v>
       </c>
       <c r="P19" t="n">
-        <v>24.25472746205656</v>
+        <v>24.25472746205657</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.25320897194579</v>
+        <v>30.25320897194577</v>
       </c>
       <c r="K20" t="n">
         <v>167.30616664858</v>
@@ -36139,7 +36139,7 @@
         <v>162.0692339700739</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.70546763518344</v>
+        <v>43.70546763518342</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.38892756098311</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.5844033430592</v>
       </c>
       <c r="L21" t="n">
-        <v>64.69521790308619</v>
+        <v>290.0518010239268</v>
       </c>
       <c r="M21" t="n">
         <v>379.1582113173976</v>
       </c>
       <c r="N21" t="n">
-        <v>379.1582113173976</v>
+        <v>8.606152414480873</v>
       </c>
       <c r="O21" t="n">
         <v>314.5652017565765</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.644175459124984</v>
+        <v>3.644175459124973</v>
       </c>
       <c r="L22" t="n">
-        <v>60.75059762174167</v>
+        <v>60.75059762174165</v>
       </c>
       <c r="M22" t="n">
-        <v>74.54705106163638</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N22" t="n">
-        <v>78.26400034546782</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O22" t="n">
-        <v>56.11139543730275</v>
+        <v>56.11139543730273</v>
       </c>
       <c r="P22" t="n">
-        <v>24.25472746205657</v>
+        <v>24.25472746205656</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.38892756098311</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.5844033430592</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>290.0518010239268</v>
       </c>
       <c r="M24" t="n">
-        <v>379.1582113173975</v>
+        <v>178.1905557575399</v>
       </c>
       <c r="N24" t="n">
         <v>379.1582113173975</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>314.5652017565765</v>
       </c>
       <c r="P24" t="n">
-        <v>154.9157064246342</v>
+        <v>235.2914911319575</v>
       </c>
       <c r="Q24" t="n">
         <v>104.0560605926</v>
@@ -36519,13 +36519,13 @@
         <v>3.644175459124973</v>
       </c>
       <c r="L25" t="n">
-        <v>60.75059762174166</v>
+        <v>60.75059762174165</v>
       </c>
       <c r="M25" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N25" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O25" t="n">
         <v>56.11139543730273</v>
@@ -36598,25 +36598,25 @@
         <v>317.5819022575491</v>
       </c>
       <c r="L26" t="n">
-        <v>410.638503844857</v>
+        <v>410.6385038448569</v>
       </c>
       <c r="M26" t="n">
-        <v>456.753770162613</v>
+        <v>456.7537701626129</v>
       </c>
       <c r="N26" t="n">
-        <v>446.9331096737901</v>
+        <v>446.93310967379</v>
       </c>
       <c r="O26" t="n">
-        <v>384.7568031088316</v>
+        <v>384.7568031088315</v>
       </c>
       <c r="P26" t="n">
         <v>312.344969579043</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.9812032441526</v>
+        <v>193.9812032441525</v>
       </c>
       <c r="R26" t="n">
-        <v>31.64127721220942</v>
+        <v>31.64127721220946</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K27" t="n">
         <v>169.5844033430592</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.532804608064971</v>
       </c>
       <c r="J28" t="n">
-        <v>72.68577227441733</v>
+        <v>20.83681975586981</v>
       </c>
       <c r="K28" t="n">
-        <v>20.81317022426389</v>
+        <v>153.9199110680941</v>
       </c>
       <c r="L28" t="n">
-        <v>60.75059762174166</v>
+        <v>211.0263332307108</v>
       </c>
       <c r="M28" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N28" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O28" t="n">
         <v>206.3871310462719</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5304630710257</v>
+        <v>24.25472746205656</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.79059293334731</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.528944580915</v>
+        <v>180.5289445809149</v>
       </c>
       <c r="K29" t="n">
-        <v>317.5819022575492</v>
+        <v>317.5819022575491</v>
       </c>
       <c r="L29" t="n">
-        <v>410.638503844857</v>
+        <v>410.6385038448569</v>
       </c>
       <c r="M29" t="n">
-        <v>456.753770162613</v>
+        <v>456.7537701626129</v>
       </c>
       <c r="N29" t="n">
         <v>446.9331096737901</v>
       </c>
       <c r="O29" t="n">
-        <v>384.7568031088316</v>
+        <v>384.7568031088315</v>
       </c>
       <c r="P29" t="n">
-        <v>312.3449695790431</v>
+        <v>312.344969579043</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.9812032441526</v>
+        <v>193.9812032441525</v>
       </c>
       <c r="R29" t="n">
-        <v>31.64127721220947</v>
+        <v>31.64127721220939</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K30" t="n">
         <v>169.5844033430592</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.660262590756844</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.841772962400029</v>
+        <v>3.841772962399943</v>
       </c>
       <c r="F31" t="n">
-        <v>4.854687586037954</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9199110680942</v>
+        <v>153.9199110680941</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0263332307109</v>
+        <v>211.0263332307108</v>
       </c>
       <c r="M31" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N31" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O31" t="n">
         <v>56.11139543730273</v>
       </c>
       <c r="P31" t="n">
-        <v>103.7527713624173</v>
+        <v>110.2677215392131</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.79059293334737</v>
+        <v>82.79059293334727</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>184.4880688308307</v>
+        <v>184.4880688308306</v>
       </c>
       <c r="K32" t="n">
-        <v>321.5410265074648</v>
+        <v>225.316250622538</v>
       </c>
       <c r="L32" t="n">
-        <v>414.5976280947727</v>
+        <v>414.5976280947726</v>
       </c>
       <c r="M32" t="n">
-        <v>460.7128944125287</v>
+        <v>460.7128944125286</v>
       </c>
       <c r="N32" t="n">
-        <v>450.8922339237058</v>
+        <v>450.8922339237057</v>
       </c>
       <c r="O32" t="n">
-        <v>292.4911514738197</v>
+        <v>388.7159273587473</v>
       </c>
       <c r="P32" t="n">
-        <v>316.3040938289588</v>
+        <v>316.3040938289587</v>
       </c>
       <c r="Q32" t="n">
-        <v>197.9403274940683</v>
+        <v>197.9403274940682</v>
       </c>
       <c r="R32" t="n">
-        <v>35.60040146212518</v>
+        <v>35.60040146212509</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K33" t="n">
         <v>169.5844033430592</v>
@@ -37221,22 +37221,22 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.491928857980675</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.64489652433301</v>
       </c>
       <c r="K34" t="n">
         <v>3.644175459124973</v>
       </c>
       <c r="L34" t="n">
-        <v>214.9854574806266</v>
+        <v>214.9854574806265</v>
       </c>
       <c r="M34" t="n">
-        <v>228.7819109205213</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N34" t="n">
-        <v>194.5169857099904</v>
+        <v>232.4988602043526</v>
       </c>
       <c r="O34" t="n">
         <v>56.11139543730273</v>
@@ -37245,7 +37245,7 @@
         <v>24.25472746205656</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>34.11615998221026</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.65431476273183</v>
+        <v>11.65431476273177</v>
       </c>
       <c r="J35" t="n">
         <v>30.25320897194577</v>
       </c>
       <c r="K35" t="n">
-        <v>167.30616664858</v>
+        <v>207.2057014618979</v>
       </c>
       <c r="L35" t="n">
         <v>260.3627682358879</v>
       </c>
       <c r="M35" t="n">
-        <v>306.4780345536439</v>
+        <v>491.4930084772496</v>
       </c>
       <c r="N35" t="n">
         <v>296.6573740648209</v>
       </c>
       <c r="O35" t="n">
-        <v>375.0696185651504</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P35" t="n">
-        <v>162.0692339700739</v>
+        <v>365.0296500384696</v>
       </c>
       <c r="Q35" t="n">
-        <v>246.6658837035793</v>
+        <v>43.70546763518342</v>
       </c>
       <c r="R35" t="n">
-        <v>84.3259576716361</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.271169388130808</v>
+        <v>5.271169388130751</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K36" t="n">
-        <v>169.5844033430595</v>
+        <v>169.5844033430592</v>
       </c>
       <c r="L36" t="n">
         <v>290.0518010239268</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.092201237758947</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>3.644175459124973</v>
       </c>
       <c r="L37" t="n">
-        <v>60.75059762174166</v>
+        <v>60.75059762174165</v>
       </c>
       <c r="M37" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N37" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O37" t="n">
         <v>56.11139543730273</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.092201237758523</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.65431476273177</v>
+        <v>11.65431476273183</v>
       </c>
       <c r="J38" t="n">
-        <v>30.25320897194577</v>
+        <v>170.8417600372337</v>
       </c>
       <c r="K38" t="n">
         <v>167.30616664858</v>
@@ -37558,16 +37558,16 @@
         <v>234.4810674998624</v>
       </c>
       <c r="P38" t="n">
-        <v>365.0296500384696</v>
+        <v>162.0692339700739</v>
       </c>
       <c r="Q38" t="n">
-        <v>184.2940187004714</v>
+        <v>246.6658837035793</v>
       </c>
       <c r="R38" t="n">
-        <v>84.32595767163605</v>
+        <v>84.3259576716361</v>
       </c>
       <c r="S38" t="n">
-        <v>5.271169388130751</v>
+        <v>5.271169388130808</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K39" t="n">
         <v>169.5844033430592</v>
@@ -37631,7 +37631,7 @@
         <v>390.9810352184421</v>
       </c>
       <c r="N39" t="n">
-        <v>417.194809908635</v>
+        <v>417.1948099086352</v>
       </c>
       <c r="O39" t="n">
         <v>314.5652017565765</v>
@@ -37640,7 +37640,7 @@
         <v>235.2914911319575</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.0560605926001</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.644175459124973</v>
+        <v>7.736376696883458</v>
       </c>
       <c r="L40" t="n">
-        <v>60.75059762174166</v>
+        <v>60.75059762174165</v>
       </c>
       <c r="M40" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N40" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O40" t="n">
         <v>56.11139543730273</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.092201237758982</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.65431476273172</v>
+        <v>11.65431476273177</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2136250403415</v>
+        <v>233.2136250403416</v>
       </c>
       <c r="K41" t="n">
-        <v>307.8947177138682</v>
+        <v>167.30616664858</v>
       </c>
       <c r="L41" t="n">
         <v>260.3627682358879</v>
@@ -37789,10 +37789,10 @@
         <v>306.4780345536439</v>
       </c>
       <c r="N41" t="n">
-        <v>296.6573740648209</v>
+        <v>491.4930084772496</v>
       </c>
       <c r="O41" t="n">
-        <v>234.4810674998624</v>
+        <v>269.8311112124886</v>
       </c>
       <c r="P41" t="n">
         <v>162.0692339700739</v>
@@ -37801,10 +37801,10 @@
         <v>43.70546763518342</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32595767163599</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.271169388130694</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K42" t="n">
         <v>169.5844033430592</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.092201237758947</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>3.644175459124973</v>
       </c>
       <c r="L43" t="n">
-        <v>60.75059762174166</v>
+        <v>60.75059762174165</v>
       </c>
       <c r="M43" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N43" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O43" t="n">
         <v>56.11139543730273</v>
@@ -37956,7 +37956,7 @@
         <v>24.25472746205656</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.092201237759327</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.65431476273172</v>
+        <v>11.65431476273183</v>
       </c>
       <c r="J44" t="n">
         <v>30.25320897194577</v>
@@ -38020,28 +38020,28 @@
         <v>167.30616664858</v>
       </c>
       <c r="L44" t="n">
-        <v>260.3627682358879</v>
+        <v>463.3231843042837</v>
       </c>
       <c r="M44" t="n">
         <v>306.4780345536439</v>
       </c>
       <c r="N44" t="n">
-        <v>296.6573740648209</v>
+        <v>491.4930084772496</v>
       </c>
       <c r="O44" t="n">
         <v>234.4810674998624</v>
       </c>
       <c r="P44" t="n">
-        <v>302.6577850353623</v>
+        <v>162.0692339700739</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.6658837035791</v>
+        <v>73.78434195967854</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32595767163599</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.271169388130694</v>
+        <v>5.271169388130808</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.38892756098311</v>
+        <v>24.3889275609831</v>
       </c>
       <c r="K45" t="n">
         <v>169.5844033430592</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.092201237759255</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>3.644175459124973</v>
       </c>
       <c r="L46" t="n">
-        <v>60.75059762174166</v>
+        <v>64.84279885950015</v>
       </c>
       <c r="M46" t="n">
         <v>74.54705106163635</v>
       </c>
       <c r="N46" t="n">
-        <v>78.26400034546781</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O46" t="n">
         <v>56.11139543730273</v>
